--- a/위스키리스트(top100).xlsx
+++ b/위스키리스트(top100).xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiyon\Desktop\Python\Project\whisky homepage project\project test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2546BB72-8BFB-460C-B84C-9B715D4D9FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B89826-5299-46A1-8A7F-8F23C3607222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3C774B9A-2BE3-4B71-9C36-FD530AF8E3AC}"/>
+    <workbookView xWindow="1305" yWindow="975" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{3C774B9A-2BE3-4B71-9C36-FD530AF8E3AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TOP100" sheetId="3" r:id="rId2"/>
+    <sheet name="TOP50" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$K$3:$K$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TOP100'!$C$3:$D$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TOP50'!$C$3:$D$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="402">
   <si>
     <t>Top 100 Most Popular Whiskies</t>
   </si>
@@ -1410,6 +1412,37 @@
   </si>
   <si>
     <t>Barrell Dovetail Whiskey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름순(TOP50)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>", "</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>, "</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Macallan Double Cask 12 Years Old", "Tullamore D.E.W. Irish Whiskey", "Uncle Nearest 1856 Premium Whiskey", "Wild Turkey 101", "Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey", "Woodford Reserve Kentucky Straight Bourbon Whiskey"</t>
+  </si>
+  <si>
+    <t>이름순(TOP100)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Glenlivet Founder’s Reserve", "The Macallan Double Cask 12 Years Old", "The Macallan Sherry Oak 12 Years Old", "TINCUP American Whiskey", "Tullamore D.E.W. Irish Whiskey", "TX Blended Whiskey", "Uncle Nearest 1856 Premium Whiskey", "Uncle Nearest 1884 Small Batch Whiskey", "Weller Special Reserve Bourbon", "Wild Turkey 101", "Wild Turkey American Honey", "Wild Turkey Bourbon", "Wild Turkey Longbranch", "Willett Pot Still Reserve Bourbon", "Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey", "Woodford Reserve Kentucky Straight Bourbon Whiskey", "Woodford Reserve Kentucky Straight Rye Whiskey"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40. Laphroaig 10 Year Old Islay Single Malt Scotch Whisky</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1471,7 +1504,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1481,6 +1514,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,7 +1541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1528,6 +1567,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11026,19 +11068,3540 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCC3A19-F82E-45FE-B3DC-FF4D20D83893}">
-  <dimension ref="C1:L103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084340B8-A21D-4657-9942-2B48CEDF23A4}">
+  <dimension ref="C1:T106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="72.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" t="s">
+        <v>283</v>
+      </c>
+      <c r="K3" t="s">
+        <v>285</v>
+      </c>
+      <c r="M3" t="s">
+        <v>399</v>
+      </c>
+      <c r="N3" t="s">
+        <v>395</v>
+      </c>
+      <c r="O3" t="s">
+        <v>396</v>
+      </c>
+      <c r="P3" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>394</v>
+      </c>
+      <c r="R3" t="s">
+        <v>395</v>
+      </c>
+      <c r="S3" t="s">
+        <v>396</v>
+      </c>
+      <c r="T3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="str">
+        <f>MID(C4,4,100)</f>
+        <v>Jameson Irish Whiskey</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>391</v>
+      </c>
+      <c r="M4" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D12" si="0">MID(C5,4,100)</f>
+        <v>Bulleit Bourbon</v>
+      </c>
+      <c r="G5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" t="str">
+        <f>G4&amp;", "&amp;G5</f>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon</v>
+      </c>
+      <c r="K5" t="s">
+        <v>392</v>
+      </c>
+      <c r="L5" t="str">
+        <f>K4&amp;", "&amp;K5</f>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey</v>
+      </c>
+      <c r="M5" t="s">
+        <v>220</v>
+      </c>
+      <c r="N5" t="str">
+        <f>N3&amp;M4&amp;O3&amp;M5&amp;N3</f>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey"</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>213</v>
+      </c>
+      <c r="R5" t="str">
+        <f>R3&amp;Q4&amp;S3&amp;Q5&amp;R3</f>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey"</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jack Daniel’s Old No. 7 Tennessee Whiskey</v>
+      </c>
+      <c r="G6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6" t="str">
+        <f>H5&amp;", "&amp;G6</f>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey</v>
+      </c>
+      <c r="K6" t="s">
+        <v>393</v>
+      </c>
+      <c r="L6" t="str">
+        <f>L5&amp;", "&amp;K6</f>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey</v>
+      </c>
+      <c r="M6" t="s">
+        <v>281</v>
+      </c>
+      <c r="N6" t="str">
+        <f>N5&amp;$P$3&amp;M6&amp;$N$3</f>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey"</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>190</v>
+      </c>
+      <c r="R6" t="str">
+        <f>R5&amp;$T$3&amp;Q6&amp;$R$3</f>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey"</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Fireball Cinnamon Whisky</v>
+      </c>
+      <c r="G7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" ref="H7:H70" si="1">H6&amp;", "&amp;G7</f>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky</v>
+      </c>
+      <c r="K7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" ref="L7:L70" si="2">L6&amp;", "&amp;K7</f>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey</v>
+      </c>
+      <c r="M7" t="s">
+        <v>213</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" ref="N7:N70" si="3">N6&amp;$P$3&amp;M7&amp;$N$3</f>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey"</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>214</v>
+      </c>
+      <c r="R7" t="str">
+        <f>R6&amp;$T$3&amp;Q7&amp;$R$3</f>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon"</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Maker’s Mark Bourbon Whisky</v>
+      </c>
+      <c r="G8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky</v>
+      </c>
+      <c r="K8" t="s">
+        <v>190</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey</v>
+      </c>
+      <c r="M8" t="s">
+        <v>190</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey"</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>198</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" ref="R8:R53" si="4">R7&amp;$T$3&amp;Q8&amp;$R$3</f>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon"</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Jim Beam Bourbon Whiskey</v>
+      </c>
+      <c r="G9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey</v>
+      </c>
+      <c r="K9" t="s">
+        <v>214</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon</v>
+      </c>
+      <c r="M9" t="s">
+        <v>214</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon"</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>185</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon"</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Basil Hayden’s Kentucky Straight Bourbon Whiskey</v>
+      </c>
+      <c r="G10" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey</v>
+      </c>
+      <c r="K10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon</v>
+      </c>
+      <c r="M10" t="s">
+        <v>272</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon"</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>197</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye"</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>Woodford Reserve Kentucky Straight Bourbon Whiskey</v>
+      </c>
+      <c r="G11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey</v>
+      </c>
+      <c r="K11" t="s">
+        <v>234</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey</v>
+      </c>
+      <c r="M11" t="s">
+        <v>234</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey"</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>212</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky"</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>Johnnie Walker Black Label Blended Scotch Whisky</v>
+      </c>
+      <c r="G12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky</v>
+      </c>
+      <c r="K12" t="s">
+        <v>269</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky</v>
+      </c>
+      <c r="M12" t="s">
+        <v>269</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky"</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>193</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky"</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="str">
+        <f>MID(C13,5,100)</f>
+        <v>Crown Royal Fine Deluxe Blended Canadian Whisky</v>
+      </c>
+      <c r="G13" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky</v>
+      </c>
+      <c r="K13" t="s">
+        <v>198</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon</v>
+      </c>
+      <c r="M13" t="s">
+        <v>198</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon"</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>208</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky"</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ref="D14:D77" si="5">MID(C14,5,100)</f>
+        <v>Skrewball Peanut Butter Whiskey</v>
+      </c>
+      <c r="G14" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey</v>
+      </c>
+      <c r="K14" t="s">
+        <v>185</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon</v>
+      </c>
+      <c r="M14" t="s">
+        <v>185</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon"</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>199</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky"</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="5"/>
+        <v>Knob Creek Kentucky Straight Bourbon Whiskey</v>
+      </c>
+      <c r="G15" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey</v>
+      </c>
+      <c r="K15" t="s">
+        <v>197</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye</v>
+      </c>
+      <c r="M15" t="s">
+        <v>197</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye"</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>221</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky"</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="5"/>
+        <v>Jack Daniel’s Tennessee Honey</v>
+      </c>
+      <c r="G16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey</v>
+      </c>
+      <c r="K16" t="s">
+        <v>256</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey</v>
+      </c>
+      <c r="M16" t="s">
+        <v>256</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey"</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>206</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky"</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="5"/>
+        <v>Bulleit Rye</v>
+      </c>
+      <c r="G17" t="s">
+        <v>197</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye</v>
+      </c>
+      <c r="K17" t="s">
+        <v>238</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky</v>
+      </c>
+      <c r="M17" t="s">
+        <v>238</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky"</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>219</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon"</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="5"/>
+        <v>Buffalo Trace Bourbon</v>
+      </c>
+      <c r="G18" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon</v>
+      </c>
+      <c r="K18" t="s">
+        <v>235</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year</v>
+      </c>
+      <c r="M18" t="s">
+        <v>235</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year"</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>209</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon"</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="5"/>
+        <v>Crown Royal Regal Apple Flavored Whisky</v>
+      </c>
+      <c r="G19" t="s">
+        <v>199</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky</v>
+      </c>
+      <c r="K19" t="s">
+        <v>267</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch</v>
+      </c>
+      <c r="M19" t="s">
+        <v>267</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch"</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>200</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon"</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="5"/>
+        <v>Evan Williams Bourbon</v>
+      </c>
+      <c r="G20" t="s">
+        <v>200</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon</v>
+      </c>
+      <c r="K20" t="s">
+        <v>212</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky</v>
+      </c>
+      <c r="M20" t="s">
+        <v>212</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky"</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>187</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky"</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="5"/>
+        <v>Johnnie Walker Red Label Blended Scotch Whisky</v>
+      </c>
+      <c r="G21" t="s">
+        <v>201</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky</v>
+      </c>
+      <c r="K21" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky</v>
+      </c>
+      <c r="M21" t="s">
+        <v>193</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky"</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>210</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon"</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="5"/>
+        <v>Wild Turkey 101</v>
+      </c>
+      <c r="G22" t="s">
+        <v>202</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101</v>
+      </c>
+      <c r="K22" t="s">
+        <v>208</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky</v>
+      </c>
+      <c r="M22" t="s">
+        <v>208</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky"</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>226</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon"</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="5"/>
+        <v>The Glenlivet 12 Year</v>
+      </c>
+      <c r="G23" t="s">
+        <v>203</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year</v>
+      </c>
+      <c r="K23" t="s">
+        <v>199</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky</v>
+      </c>
+      <c r="M23" t="s">
+        <v>199</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky"</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>215</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky"</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="5"/>
+        <v>Suntory Toki Japanese Whisky</v>
+      </c>
+      <c r="G24" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky</v>
+      </c>
+      <c r="K24" t="s">
+        <v>221</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky</v>
+      </c>
+      <c r="M24" t="s">
+        <v>221</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky"</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>225</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey"</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="5"/>
+        <v>Tullamore D.E.W. Irish Whiskey</v>
+      </c>
+      <c r="G25" t="s">
+        <v>205</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey</v>
+      </c>
+      <c r="K25" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky</v>
+      </c>
+      <c r="M25" t="s">
+        <v>206</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky"</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>207</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey"</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="5"/>
+        <v>Crown Royal Vanilla Flavored Whisky</v>
+      </c>
+      <c r="G26" t="s">
+        <v>206</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky</v>
+      </c>
+      <c r="K26" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon</v>
+      </c>
+      <c r="M26" t="s">
+        <v>242</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon"</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>186</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey"</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="5"/>
+        <v>Jack Daniel’s Gentleman Jack Tennessee Whiskey</v>
+      </c>
+      <c r="G27" t="s">
+        <v>207</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey</v>
+      </c>
+      <c r="K27" t="s">
+        <v>219</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon</v>
+      </c>
+      <c r="M27" t="s">
+        <v>219</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon"</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>227</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey"</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="5"/>
+        <v>Crown Royal Peach Flavored Whisky</v>
+      </c>
+      <c r="G28" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky</v>
+      </c>
+      <c r="K28" t="s">
+        <v>209</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon</v>
+      </c>
+      <c r="M28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon"</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>196</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey"</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="5"/>
+        <v>Elijah Craig Small Batch Bourbon</v>
+      </c>
+      <c r="G29" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon</v>
+      </c>
+      <c r="K29" t="s">
+        <v>200</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon</v>
+      </c>
+      <c r="M29" t="s">
+        <v>200</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon"</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>222</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel"</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="5"/>
+        <v>Four Roses Bourbon</v>
+      </c>
+      <c r="G30" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon</v>
+      </c>
+      <c r="K30" t="s">
+        <v>187</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky</v>
+      </c>
+      <c r="M30" t="s">
+        <v>187</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky"</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>232</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew"</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="5"/>
+        <v>The Macallan Double Cask 12 Years Old</v>
+      </c>
+      <c r="G31" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old</v>
+      </c>
+      <c r="K31" t="s">
+        <v>257</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve</v>
+      </c>
+      <c r="M31" t="s">
+        <v>257</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve"</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>11</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey"</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="5"/>
+        <v>Crown Royal Black Blended Canadian Whisky</v>
+      </c>
+      <c r="G32" t="s">
+        <v>212</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky</v>
+      </c>
+      <c r="K32" t="s">
+        <v>210</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon</v>
+      </c>
+      <c r="M32" t="s">
+        <v>210</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon"</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>218</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey"</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="5"/>
+        <v>Basil Hayden’s Dark Rye Whiskey</v>
+      </c>
+      <c r="G33" t="s">
+        <v>213</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey</v>
+      </c>
+      <c r="K33" t="s">
+        <v>240</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon</v>
+      </c>
+      <c r="M33" t="s">
+        <v>240</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon"</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>189</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey"</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="5"/>
+        <v>Blanton’s Single Barrel Bourbon</v>
+      </c>
+      <c r="G34" t="s">
+        <v>214</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon</v>
+      </c>
+      <c r="K34" t="s">
+        <v>226</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon</v>
+      </c>
+      <c r="M34" t="s">
+        <v>226</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon"</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>192</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky"</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C35" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="5"/>
+        <v>Hibiki Japanese Harmony Whisky</v>
+      </c>
+      <c r="G35" t="s">
+        <v>215</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky</v>
+      </c>
+      <c r="K35" t="s">
+        <v>277</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon</v>
+      </c>
+      <c r="M35" t="s">
+        <v>277</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon"</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>201</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky"</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="5"/>
+        <v>Monkey Shoulder Blended Scotch</v>
+      </c>
+      <c r="G36" t="s">
+        <v>216</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch</v>
+      </c>
+      <c r="K36" t="s">
+        <v>253</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky</v>
+      </c>
+      <c r="M36" t="s">
+        <v>253</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky"</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>195</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey"</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="5"/>
+        <v>Maker’s 46 Bourbon Whisky</v>
+      </c>
+      <c r="G37" t="s">
+        <v>217</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky</v>
+      </c>
+      <c r="K37" t="s">
+        <v>276</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year</v>
+      </c>
+      <c r="M37" t="s">
+        <v>276</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year"</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>223</v>
+      </c>
+      <c r="R37" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky"</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="5"/>
+        <v>Jim Beam Black Extra Aged Bourbon Whiskey</v>
+      </c>
+      <c r="G38" t="s">
+        <v>218</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey</v>
+      </c>
+      <c r="K38" t="s">
+        <v>258</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky</v>
+      </c>
+      <c r="M38" t="s">
+        <v>258</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky"</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>217</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky"</v>
+      </c>
+    </row>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="5"/>
+        <v>Eagle Rare 10yr Bourbon</v>
+      </c>
+      <c r="G39" t="s">
+        <v>219</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon</v>
+      </c>
+      <c r="K39" t="s">
+        <v>215</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky</v>
+      </c>
+      <c r="M39" t="s">
+        <v>215</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky"</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>188</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky"</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="5"/>
+        <v>Angel’s Envy Kentucky Straight Bourbon Whiskey</v>
+      </c>
+      <c r="G40" t="s">
+        <v>220</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey</v>
+      </c>
+      <c r="K40" t="s">
+        <v>225</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey</v>
+      </c>
+      <c r="M40" t="s">
+        <v>225</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey"</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>216</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch"</v>
+      </c>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C41" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="5"/>
+        <v>Crown Royal Salted Caramel Flavored Whisky</v>
+      </c>
+      <c r="G41" t="s">
+        <v>221</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky</v>
+      </c>
+      <c r="K41" t="s">
+        <v>249</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey</v>
+      </c>
+      <c r="M41" t="s">
+        <v>249</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey"</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>224</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey"</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="5"/>
+        <v>Jameson Black Barrel</v>
+      </c>
+      <c r="G42" t="s">
+        <v>222</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel</v>
+      </c>
+      <c r="K42" t="s">
+        <v>261</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye</v>
+      </c>
+      <c r="M42" t="s">
+        <v>261</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye"</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>194</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey"</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C43" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="5"/>
+        <v>Laphroaig 10 Year Old Islay Single Malt Scotch Whisky</v>
+      </c>
+      <c r="G43" t="s">
+        <v>223</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky</v>
+      </c>
+      <c r="K43" t="s">
+        <v>273</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey</v>
+      </c>
+      <c r="M43" t="s">
+        <v>273</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey"</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>228</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original"</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="5"/>
+        <v>Proper No. Twelve Irish Whiskey</v>
+      </c>
+      <c r="G44" t="s">
+        <v>224</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey</v>
+      </c>
+      <c r="K44" t="s">
+        <v>207</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey</v>
+      </c>
+      <c r="M44" t="s">
+        <v>207</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey"</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>204</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky"</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C45" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="5"/>
+        <v>High West American Prairie Bourbon Whiskey</v>
+      </c>
+      <c r="G45" t="s">
+        <v>225</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey</v>
+      </c>
+      <c r="K45" t="s">
+        <v>186</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey</v>
+      </c>
+      <c r="M45" t="s">
+        <v>186</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey"</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>230</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky"</v>
+      </c>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="5"/>
+        <v>Four Roses Small Batch Bourbon</v>
+      </c>
+      <c r="G46" t="s">
+        <v>226</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon</v>
+      </c>
+      <c r="K46" t="s">
+        <v>248</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey</v>
+      </c>
+      <c r="M46" t="s">
+        <v>248</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey"</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>233</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky"</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C47" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="5"/>
+        <v>Jack Daniel’s Tennessee Fire Flavored Whiskey</v>
+      </c>
+      <c r="G47" t="s">
+        <v>227</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey</v>
+      </c>
+      <c r="K47" t="s">
+        <v>227</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey</v>
+      </c>
+      <c r="M47" t="s">
+        <v>227</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey"</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>203</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year"</v>
+      </c>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C48" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="5"/>
+        <v>Southern Comfort Original</v>
+      </c>
+      <c r="G48" t="s">
+        <v>228</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original</v>
+      </c>
+      <c r="K48" t="s">
+        <v>196</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey</v>
+      </c>
+      <c r="M48" t="s">
+        <v>196</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey"</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>211</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Macallan Double Cask 12 Years Old"</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C49" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="5"/>
+        <v>Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey</v>
+      </c>
+      <c r="G49" t="s">
+        <v>229</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey</v>
+      </c>
+      <c r="K49" t="s">
+        <v>222</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel</v>
+      </c>
+      <c r="M49" t="s">
+        <v>222</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel"</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>205</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Macallan Double Cask 12 Years Old", "Tullamore D.E.W. Irish Whiskey"</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C50" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="5"/>
+        <v>The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky</v>
+      </c>
+      <c r="G50" t="s">
+        <v>230</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky</v>
+      </c>
+      <c r="K50" t="s">
+        <v>278</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition</v>
+      </c>
+      <c r="M50" t="s">
+        <v>278</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition"</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>231</v>
+      </c>
+      <c r="R50" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Macallan Double Cask 12 Years Old", "Tullamore D.E.W. Irish Whiskey", "Uncle Nearest 1856 Premium Whiskey"</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C51" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="5"/>
+        <v>Uncle Nearest 1856 Premium Whiskey</v>
+      </c>
+      <c r="G51" t="s">
+        <v>231</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey</v>
+      </c>
+      <c r="K51" t="s">
+        <v>250</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition</v>
+      </c>
+      <c r="M51" t="s">
+        <v>250</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition"</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>202</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Macallan Double Cask 12 Years Old", "Tullamore D.E.W. Irish Whiskey", "Uncle Nearest 1856 Premium Whiskey", "Wild Turkey 101"</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C52" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="5"/>
+        <v>Jameson Cold Brew</v>
+      </c>
+      <c r="G52" t="s">
+        <v>232</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew</v>
+      </c>
+      <c r="K52" t="s">
+        <v>232</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew</v>
+      </c>
+      <c r="M52" t="s">
+        <v>232</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew"</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>229</v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Macallan Double Cask 12 Years Old", "Tullamore D.E.W. Irish Whiskey", "Uncle Nearest 1856 Premium Whiskey", "Wild Turkey 101", "Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey"</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C53" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="5"/>
+        <v>The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky</v>
+      </c>
+      <c r="G53" t="s">
+        <v>233</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky</v>
+      </c>
+      <c r="K53" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey</v>
+      </c>
+      <c r="M53" t="s">
+        <v>11</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey"</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>191</v>
+      </c>
+      <c r="R53" t="str">
+        <f t="shared" si="4"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Macallan Double Cask 12 Years Old", "Tullamore D.E.W. Irish Whiskey", "Uncle Nearest 1856 Premium Whiskey", "Wild Turkey 101", "Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey", "Woodford Reserve Kentucky Straight Bourbon Whiskey"</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C54" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="5"/>
+        <v>Breckenridge Bourbon Whiskey</v>
+      </c>
+      <c r="G54" t="s">
+        <v>234</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey</v>
+      </c>
+      <c r="K54" t="s">
+        <v>218</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey</v>
+      </c>
+      <c r="M54" t="s">
+        <v>218</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey"</v>
+      </c>
+      <c r="R54" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C55" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="5"/>
+        <v>Chivas Regal 12 Year</v>
+      </c>
+      <c r="G55" t="s">
+        <v>235</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year</v>
+      </c>
+      <c r="K55" t="s">
+        <v>189</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey</v>
+      </c>
+      <c r="M55" t="s">
+        <v>189</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey"</v>
+      </c>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C56" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="5"/>
+        <v>Knob Creek Rye Whiskey</v>
+      </c>
+      <c r="G56" t="s">
+        <v>236</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey</v>
+      </c>
+      <c r="K56" t="s">
+        <v>279</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey</v>
+      </c>
+      <c r="M56" t="s">
+        <v>279</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey"</v>
+      </c>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C57" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="5"/>
+        <v>Weller Special Reserve Bourbon</v>
+      </c>
+      <c r="G57" t="s">
+        <v>237</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon</v>
+      </c>
+      <c r="K57" t="s">
+        <v>192</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky</v>
+      </c>
+      <c r="M57" t="s">
+        <v>192</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky"</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C58" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="5"/>
+        <v>Canadian Club Whisky</v>
+      </c>
+      <c r="G58" t="s">
+        <v>238</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky</v>
+      </c>
+      <c r="K58" t="s">
+        <v>270</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky</v>
+      </c>
+      <c r="M58" t="s">
+        <v>270</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky"</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C59" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="5"/>
+        <v>Redemption Straight Rye Whiskey</v>
+      </c>
+      <c r="G59" t="s">
+        <v>239</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey</v>
+      </c>
+      <c r="K59" t="s">
+        <v>201</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky</v>
+      </c>
+      <c r="M59" t="s">
+        <v>201</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky"</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C60" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="5"/>
+        <v>Four Roses Single Barrel Bourbon</v>
+      </c>
+      <c r="G60" t="s">
+        <v>240</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon</v>
+      </c>
+      <c r="K60" t="s">
+        <v>255</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky</v>
+      </c>
+      <c r="M60" t="s">
+        <v>255</v>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky"</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C61" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="5"/>
+        <v>TX Blended Whiskey</v>
+      </c>
+      <c r="G61" t="s">
+        <v>241</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey</v>
+      </c>
+      <c r="K61" t="s">
+        <v>195</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey</v>
+      </c>
+      <c r="M61" t="s">
+        <v>195</v>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey"</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C62" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="5"/>
+        <v>E.H. Taylor, Jr. Small Batch Bourbon</v>
+      </c>
+      <c r="G62" t="s">
+        <v>242</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon</v>
+      </c>
+      <c r="K62" t="s">
+        <v>236</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey</v>
+      </c>
+      <c r="M62" t="s">
+        <v>236</v>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey"</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C63" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="5"/>
+        <v>Rittenhouse Rye</v>
+      </c>
+      <c r="G63" t="s">
+        <v>243</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye</v>
+      </c>
+      <c r="K63" t="s">
+        <v>254</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey</v>
+      </c>
+      <c r="M63" t="s">
+        <v>254</v>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey"</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C64" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="5"/>
+        <v>Larceny Small Batch</v>
+      </c>
+      <c r="G64" t="s">
+        <v>244</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch</v>
+      </c>
+      <c r="K64" t="s">
+        <v>223</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky</v>
+      </c>
+      <c r="M64" t="s">
+        <v>223</v>
+      </c>
+      <c r="N64" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky"</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C65" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="5"/>
+        <v>Old Forester 86 Proof Kentucky Straight Bourbon Whisky</v>
+      </c>
+      <c r="G65" t="s">
+        <v>245</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky</v>
+      </c>
+      <c r="K65" t="s">
+        <v>244</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch</v>
+      </c>
+      <c r="M65" t="s">
+        <v>244</v>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch"</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C66" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="5"/>
+        <v>Legent Bourbon Whiskey</v>
+      </c>
+      <c r="G66" t="s">
+        <v>246</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey</v>
+      </c>
+      <c r="K66" t="s">
+        <v>246</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey</v>
+      </c>
+      <c r="M66" t="s">
+        <v>246</v>
+      </c>
+      <c r="N66" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey"</v>
+      </c>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C67" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="5"/>
+        <v>Wild Turkey American Honey</v>
+      </c>
+      <c r="G67" t="s">
+        <v>247</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey</v>
+      </c>
+      <c r="K67" t="s">
+        <v>217</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky</v>
+      </c>
+      <c r="M67" t="s">
+        <v>217</v>
+      </c>
+      <c r="N67" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky"</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C68" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="5"/>
+        <v>Jack Daniel’s Tennessee Apple Flavored Whiskey</v>
+      </c>
+      <c r="G68" t="s">
+        <v>248</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey</v>
+      </c>
+      <c r="K68" t="s">
+        <v>188</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky</v>
+      </c>
+      <c r="M68" t="s">
+        <v>188</v>
+      </c>
+      <c r="N68" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky"</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C69" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="5"/>
+        <v>High West Double Rye Whiskey</v>
+      </c>
+      <c r="G69" t="s">
+        <v>249</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey</v>
+      </c>
+      <c r="K69" t="s">
+        <v>266</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon</v>
+      </c>
+      <c r="M69" t="s">
+        <v>266</v>
+      </c>
+      <c r="N69" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon"</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C70" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="5"/>
+        <v>Jameson Caskmates Stout Edition</v>
+      </c>
+      <c r="G70" t="s">
+        <v>250</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="1"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition</v>
+      </c>
+      <c r="K70" t="s">
+        <v>251</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="2"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye</v>
+      </c>
+      <c r="M70" t="s">
+        <v>251</v>
+      </c>
+      <c r="N70" t="str">
+        <f t="shared" si="3"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye"</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C71" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="5"/>
+        <v>Michter’s US-1 Kentucky Straight Rye</v>
+      </c>
+      <c r="G71" t="s">
+        <v>251</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" ref="H71:H103" si="6">H70&amp;", "&amp;G71</f>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye</v>
+      </c>
+      <c r="K71" t="s">
+        <v>216</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" ref="L71:L103" si="7">L70&amp;", "&amp;K71</f>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch</v>
+      </c>
+      <c r="M71" t="s">
+        <v>216</v>
+      </c>
+      <c r="N71" t="str">
+        <f t="shared" ref="N71:N103" si="8">N70&amp;$P$3&amp;M71&amp;$N$3</f>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch"</v>
+      </c>
+    </row>
+    <row r="72" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C72" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="5"/>
+        <v>Wild Turkey Longbranch</v>
+      </c>
+      <c r="G72" t="s">
+        <v>252</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch</v>
+      </c>
+      <c r="K72" t="s">
+        <v>282</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky</v>
+      </c>
+      <c r="M72" t="s">
+        <v>282</v>
+      </c>
+      <c r="N72" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky"</v>
+      </c>
+    </row>
+    <row r="73" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C73" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="5"/>
+        <v>Glenfiddich 12 Year Old Single Malt Scotch Whisky</v>
+      </c>
+      <c r="G73" t="s">
+        <v>253</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky</v>
+      </c>
+      <c r="K73" t="s">
+        <v>265</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel</v>
+      </c>
+      <c r="M73" t="s">
+        <v>265</v>
+      </c>
+      <c r="N73" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel"</v>
+      </c>
+    </row>
+    <row r="74" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C74" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="5"/>
+        <v>Knob Creek Smoked Maple Bourbon Whiskey</v>
+      </c>
+      <c r="G74" t="s">
+        <v>254</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey</v>
+      </c>
+      <c r="K74" t="s">
+        <v>263</v>
+      </c>
+      <c r="L74" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt</v>
+      </c>
+      <c r="M74" t="s">
+        <v>263</v>
+      </c>
+      <c r="N74" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt"</v>
+      </c>
+    </row>
+    <row r="75" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C75" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="5"/>
+        <v>Johnnie Walker White Walker Blended Scotch Whisky</v>
+      </c>
+      <c r="G75" t="s">
+        <v>255</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky</v>
+      </c>
+      <c r="K75" t="s">
+        <v>245</v>
+      </c>
+      <c r="L75" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky</v>
+      </c>
+      <c r="M75" t="s">
+        <v>245</v>
+      </c>
+      <c r="N75" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky"</v>
+      </c>
+    </row>
+    <row r="76" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C76" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="5"/>
+        <v>Bushmills Irish Whiskey</v>
+      </c>
+      <c r="G76" t="s">
+        <v>256</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey</v>
+      </c>
+      <c r="K76" t="s">
+        <v>224</v>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey</v>
+      </c>
+      <c r="M76" t="s">
+        <v>224</v>
+      </c>
+      <c r="N76" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey"</v>
+      </c>
+    </row>
+    <row r="77" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C77" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="5"/>
+        <v>Fireball Sleeve</v>
+      </c>
+      <c r="G77" t="s">
+        <v>257</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve</v>
+      </c>
+      <c r="K77" t="s">
+        <v>268</v>
+      </c>
+      <c r="L77" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year</v>
+      </c>
+      <c r="M77" t="s">
+        <v>268</v>
+      </c>
+      <c r="N77" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year"</v>
+      </c>
+    </row>
+    <row r="78" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C78" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" ref="D78:D102" si="9">MID(C78,5,100)</f>
+        <v>Glenmorangie Original 10 Year Old Single Malt Whisky</v>
+      </c>
+      <c r="G78" t="s">
+        <v>258</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky</v>
+      </c>
+      <c r="K78" t="s">
+        <v>239</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey</v>
+      </c>
+      <c r="M78" t="s">
+        <v>239</v>
+      </c>
+      <c r="N78" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey"</v>
+      </c>
+    </row>
+    <row r="79" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C79" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="9"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey</v>
+      </c>
+      <c r="G79" t="s">
+        <v>259</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey</v>
+      </c>
+      <c r="K79" t="s">
+        <v>243</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye</v>
+      </c>
+      <c r="M79" t="s">
+        <v>243</v>
+      </c>
+      <c r="N79" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye"</v>
+      </c>
+    </row>
+    <row r="80" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C80" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="9"/>
+        <v>Willett Pot Still Reserve Bourbon</v>
+      </c>
+      <c r="G80" t="s">
+        <v>260</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon</v>
+      </c>
+      <c r="K80" t="s">
+        <v>275</v>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey</v>
+      </c>
+      <c r="M80" t="s">
+        <v>275</v>
+      </c>
+      <c r="N80" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey"</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C81" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="9"/>
+        <v>Hochstadter’s Slow &amp; Low Rock and Rye</v>
+      </c>
+      <c r="G81" t="s">
+        <v>261</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye</v>
+      </c>
+      <c r="K81" t="s">
+        <v>194</v>
+      </c>
+      <c r="L81" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey</v>
+      </c>
+      <c r="M81" t="s">
+        <v>194</v>
+      </c>
+      <c r="N81" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey"</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C82" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="9"/>
+        <v>The Glenlivet Founder’s Reserve</v>
+      </c>
+      <c r="G82" t="s">
+        <v>262</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve</v>
+      </c>
+      <c r="K82" t="s">
+        <v>228</v>
+      </c>
+      <c r="L82" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original</v>
+      </c>
+      <c r="M82" t="s">
+        <v>228</v>
+      </c>
+      <c r="N82" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original"</v>
+      </c>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C83" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="9"/>
+        <v>Oban 14 Year Single Malt</v>
+      </c>
+      <c r="G83" t="s">
+        <v>263</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt</v>
+      </c>
+      <c r="K83" t="s">
+        <v>204</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky</v>
+      </c>
+      <c r="M83" t="s">
+        <v>204</v>
+      </c>
+      <c r="N83" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky"</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C84" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="9"/>
+        <v>The Macallan Sherry Oak 12 Years Old</v>
+      </c>
+      <c r="G84" t="s">
+        <v>264</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old</v>
+      </c>
+      <c r="K84" t="s">
+        <v>230</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky</v>
+      </c>
+      <c r="M84" t="s">
+        <v>230</v>
+      </c>
+      <c r="N84" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky"</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C85" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="9"/>
+        <v>Nikka Whisky From The Barrel</v>
+      </c>
+      <c r="G85" t="s">
+        <v>265</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel</v>
+      </c>
+      <c r="K85" t="s">
+        <v>233</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky</v>
+      </c>
+      <c r="M85" t="s">
+        <v>233</v>
+      </c>
+      <c r="N85" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky"</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C86" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="9"/>
+        <v>Michter’s US-1 Kentucky Straight Bourbon</v>
+      </c>
+      <c r="G86" t="s">
+        <v>266</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon</v>
+      </c>
+      <c r="K86" t="s">
+        <v>203</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year</v>
+      </c>
+      <c r="M86" t="s">
+        <v>203</v>
+      </c>
+      <c r="N86" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year"</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C87" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="9"/>
+        <v>Clan Macgregor Scotch</v>
+      </c>
+      <c r="G87" t="s">
+        <v>267</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch</v>
+      </c>
+      <c r="K87" t="s">
+        <v>262</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve</v>
+      </c>
+      <c r="M87" t="s">
+        <v>262</v>
+      </c>
+      <c r="N87" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Glenlivet Founder’s Reserve"</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C88" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="9"/>
+        <v>Redbreast 12 Year</v>
+      </c>
+      <c r="G88" t="s">
+        <v>268</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year</v>
+      </c>
+      <c r="K88" t="s">
+        <v>211</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old</v>
+      </c>
+      <c r="M88" t="s">
+        <v>211</v>
+      </c>
+      <c r="N88" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Glenlivet Founder’s Reserve", "The Macallan Double Cask 12 Years Old"</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C89" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="9"/>
+        <v>Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky</v>
+      </c>
+      <c r="G89" t="s">
+        <v>269</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky</v>
+      </c>
+      <c r="K89" t="s">
+        <v>264</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old</v>
+      </c>
+      <c r="M89" t="s">
+        <v>264</v>
+      </c>
+      <c r="N89" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Glenlivet Founder’s Reserve", "The Macallan Double Cask 12 Years Old", "The Macallan Sherry Oak 12 Years Old"</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C90" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="9"/>
+        <v>Wild Turkey Bourbon</v>
+      </c>
+      <c r="G90" t="s">
+        <v>52</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon</v>
+      </c>
+      <c r="K90" t="s">
+        <v>274</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey</v>
+      </c>
+      <c r="M90" t="s">
+        <v>274</v>
+      </c>
+      <c r="N90" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Glenlivet Founder’s Reserve", "The Macallan Double Cask 12 Years Old", "The Macallan Sherry Oak 12 Years Old", "TINCUP American Whiskey"</v>
+      </c>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C91" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="9"/>
+        <v>Johnnie Walker Double Black Label Blended Scotch Whisky</v>
+      </c>
+      <c r="G91" t="s">
+        <v>270</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky</v>
+      </c>
+      <c r="K91" t="s">
+        <v>205</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey</v>
+      </c>
+      <c r="M91" t="s">
+        <v>205</v>
+      </c>
+      <c r="N91" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Glenlivet Founder’s Reserve", "The Macallan Double Cask 12 Years Old", "The Macallan Sherry Oak 12 Years Old", "TINCUP American Whiskey", "Tullamore D.E.W. Irish Whiskey"</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C92" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="9"/>
+        <v>Woodford Reserve Kentucky Straight Rye Whiskey</v>
+      </c>
+      <c r="G92" t="s">
+        <v>271</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey</v>
+      </c>
+      <c r="K92" t="s">
+        <v>241</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey</v>
+      </c>
+      <c r="M92" t="s">
+        <v>241</v>
+      </c>
+      <c r="N92" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Glenlivet Founder’s Reserve", "The Macallan Double Cask 12 Years Old", "The Macallan Sherry Oak 12 Years Old", "TINCUP American Whiskey", "Tullamore D.E.W. Irish Whiskey", "TX Blended Whiskey"</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C93" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="9"/>
+        <v>Booker’s Bourbon</v>
+      </c>
+      <c r="G93" t="s">
+        <v>272</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon</v>
+      </c>
+      <c r="K93" t="s">
+        <v>231</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey</v>
+      </c>
+      <c r="M93" t="s">
+        <v>231</v>
+      </c>
+      <c r="N93" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Glenlivet Founder’s Reserve", "The Macallan Double Cask 12 Years Old", "The Macallan Sherry Oak 12 Years Old", "TINCUP American Whiskey", "Tullamore D.E.W. Irish Whiskey", "TX Blended Whiskey", "Uncle Nearest 1856 Premium Whiskey"</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C94" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="9"/>
+        <v>Hudson Bourbon Whiskey</v>
+      </c>
+      <c r="G94" t="s">
+        <v>273</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon, Hudson Bourbon Whiskey</v>
+      </c>
+      <c r="K94" t="s">
+        <v>280</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey, Uncle Nearest 1884 Small Batch Whiskey</v>
+      </c>
+      <c r="M94" t="s">
+        <v>280</v>
+      </c>
+      <c r="N94" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Glenlivet Founder’s Reserve", "The Macallan Double Cask 12 Years Old", "The Macallan Sherry Oak 12 Years Old", "TINCUP American Whiskey", "Tullamore D.E.W. Irish Whiskey", "TX Blended Whiskey", "Uncle Nearest 1856 Premium Whiskey", "Uncle Nearest 1884 Small Batch Whiskey"</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C95" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="9"/>
+        <v>TINCUP American Whiskey</v>
+      </c>
+      <c r="G95" t="s">
+        <v>274</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon, Hudson Bourbon Whiskey, TINCUP American Whiskey</v>
+      </c>
+      <c r="K95" t="s">
+        <v>237</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Weller Special Reserve Bourbon</v>
+      </c>
+      <c r="M95" t="s">
+        <v>237</v>
+      </c>
+      <c r="N95" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Glenlivet Founder’s Reserve", "The Macallan Double Cask 12 Years Old", "The Macallan Sherry Oak 12 Years Old", "TINCUP American Whiskey", "Tullamore D.E.W. Irish Whiskey", "TX Blended Whiskey", "Uncle Nearest 1856 Premium Whiskey", "Uncle Nearest 1884 Small Batch Whiskey", "Weller Special Reserve Bourbon"</v>
+      </c>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C96" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="9"/>
+        <v>Sazerac Rye Whiskey</v>
+      </c>
+      <c r="G96" t="s">
+        <v>275</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon, Hudson Bourbon Whiskey, TINCUP American Whiskey, Sazerac Rye Whiskey</v>
+      </c>
+      <c r="K96" t="s">
+        <v>202</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Weller Special Reserve Bourbon, Wild Turkey 101</v>
+      </c>
+      <c r="M96" t="s">
+        <v>202</v>
+      </c>
+      <c r="N96" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Glenlivet Founder’s Reserve", "The Macallan Double Cask 12 Years Old", "The Macallan Sherry Oak 12 Years Old", "TINCUP American Whiskey", "Tullamore D.E.W. Irish Whiskey", "TX Blended Whiskey", "Uncle Nearest 1856 Premium Whiskey", "Uncle Nearest 1884 Small Batch Whiskey", "Weller Special Reserve Bourbon", "Wild Turkey 101"</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C97" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="9"/>
+        <v>Glenfiddich Bourbon Barrel Reserve 14 Year</v>
+      </c>
+      <c r="G97" t="s">
+        <v>276</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon, Hudson Bourbon Whiskey, TINCUP American Whiskey, Sazerac Rye Whiskey, Glenfiddich Bourbon Barrel Reserve 14 Year</v>
+      </c>
+      <c r="K97" t="s">
+        <v>247</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Weller Special Reserve Bourbon, Wild Turkey 101, Wild Turkey American Honey</v>
+      </c>
+      <c r="M97" t="s">
+        <v>247</v>
+      </c>
+      <c r="N97" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Glenlivet Founder’s Reserve", "The Macallan Double Cask 12 Years Old", "The Macallan Sherry Oak 12 Years Old", "TINCUP American Whiskey", "Tullamore D.E.W. Irish Whiskey", "TX Blended Whiskey", "Uncle Nearest 1856 Premium Whiskey", "Uncle Nearest 1884 Small Batch Whiskey", "Weller Special Reserve Bourbon", "Wild Turkey 101", "Wild Turkey American Honey"</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C98" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="9"/>
+        <v>Four Roses Small Batch Select Bourbon</v>
+      </c>
+      <c r="G98" t="s">
+        <v>277</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon, Hudson Bourbon Whiskey, TINCUP American Whiskey, Sazerac Rye Whiskey, Glenfiddich Bourbon Barrel Reserve 14 Year, Four Roses Small Batch Select Bourbon</v>
+      </c>
+      <c r="K98" t="s">
+        <v>52</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Weller Special Reserve Bourbon, Wild Turkey 101, Wild Turkey American Honey, Wild Turkey Bourbon</v>
+      </c>
+      <c r="M98" t="s">
+        <v>52</v>
+      </c>
+      <c r="N98" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Glenlivet Founder’s Reserve", "The Macallan Double Cask 12 Years Old", "The Macallan Sherry Oak 12 Years Old", "TINCUP American Whiskey", "Tullamore D.E.W. Irish Whiskey", "TX Blended Whiskey", "Uncle Nearest 1856 Premium Whiskey", "Uncle Nearest 1884 Small Batch Whiskey", "Weller Special Reserve Bourbon", "Wild Turkey 101", "Wild Turkey American Honey", "Wild Turkey Bourbon"</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C99" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="9"/>
+        <v>Jameson Caskmates IPA Edition</v>
+      </c>
+      <c r="G99" t="s">
+        <v>278</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon, Hudson Bourbon Whiskey, TINCUP American Whiskey, Sazerac Rye Whiskey, Glenfiddich Bourbon Barrel Reserve 14 Year, Four Roses Small Batch Select Bourbon, Jameson Caskmates IPA Edition</v>
+      </c>
+      <c r="K99" t="s">
+        <v>252</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Weller Special Reserve Bourbon, Wild Turkey 101, Wild Turkey American Honey, Wild Turkey Bourbon, Wild Turkey Longbranch</v>
+      </c>
+      <c r="M99" t="s">
+        <v>252</v>
+      </c>
+      <c r="N99" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Glenlivet Founder’s Reserve", "The Macallan Double Cask 12 Years Old", "The Macallan Sherry Oak 12 Years Old", "TINCUP American Whiskey", "Tullamore D.E.W. Irish Whiskey", "TX Blended Whiskey", "Uncle Nearest 1856 Premium Whiskey", "Uncle Nearest 1884 Small Batch Whiskey", "Weller Special Reserve Bourbon", "Wild Turkey 101", "Wild Turkey American Honey", "Wild Turkey Bourbon", "Wild Turkey Longbranch"</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C100" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="9"/>
+        <v>Jim Beam Devil’s Cut Bourbon Whiskey</v>
+      </c>
+      <c r="G100" t="s">
+        <v>279</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon, Hudson Bourbon Whiskey, TINCUP American Whiskey, Sazerac Rye Whiskey, Glenfiddich Bourbon Barrel Reserve 14 Year, Four Roses Small Batch Select Bourbon, Jameson Caskmates IPA Edition, Jim Beam Devil’s Cut Bourbon Whiskey</v>
+      </c>
+      <c r="K100" t="s">
+        <v>260</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Weller Special Reserve Bourbon, Wild Turkey 101, Wild Turkey American Honey, Wild Turkey Bourbon, Wild Turkey Longbranch, Willett Pot Still Reserve Bourbon</v>
+      </c>
+      <c r="M100" t="s">
+        <v>260</v>
+      </c>
+      <c r="N100" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Glenlivet Founder’s Reserve", "The Macallan Double Cask 12 Years Old", "The Macallan Sherry Oak 12 Years Old", "TINCUP American Whiskey", "Tullamore D.E.W. Irish Whiskey", "TX Blended Whiskey", "Uncle Nearest 1856 Premium Whiskey", "Uncle Nearest 1884 Small Batch Whiskey", "Weller Special Reserve Bourbon", "Wild Turkey 101", "Wild Turkey American Honey", "Wild Turkey Bourbon", "Wild Turkey Longbranch", "Willett Pot Still Reserve Bourbon"</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C101" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="9"/>
+        <v>Uncle Nearest 1884 Small Batch Whiskey</v>
+      </c>
+      <c r="G101" t="s">
+        <v>280</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon, Hudson Bourbon Whiskey, TINCUP American Whiskey, Sazerac Rye Whiskey, Glenfiddich Bourbon Barrel Reserve 14 Year, Four Roses Small Batch Select Bourbon, Jameson Caskmates IPA Edition, Jim Beam Devil’s Cut Bourbon Whiskey, Uncle Nearest 1884 Small Batch Whiskey</v>
+      </c>
+      <c r="K101" t="s">
+        <v>229</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Weller Special Reserve Bourbon, Wild Turkey 101, Wild Turkey American Honey, Wild Turkey Bourbon, Wild Turkey Longbranch, Willett Pot Still Reserve Bourbon, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey</v>
+      </c>
+      <c r="M101" t="s">
+        <v>229</v>
+      </c>
+      <c r="N101" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Glenlivet Founder’s Reserve", "The Macallan Double Cask 12 Years Old", "The Macallan Sherry Oak 12 Years Old", "TINCUP American Whiskey", "Tullamore D.E.W. Irish Whiskey", "TX Blended Whiskey", "Uncle Nearest 1856 Premium Whiskey", "Uncle Nearest 1884 Small Batch Whiskey", "Weller Special Reserve Bourbon", "Wild Turkey 101", "Wild Turkey American Honey", "Wild Turkey Bourbon", "Wild Turkey Longbranch", "Willett Pot Still Reserve Bourbon", "Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey"</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C102" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="9"/>
+        <v>Barrell Dovetail Whiskey</v>
+      </c>
+      <c r="G102" t="s">
+        <v>281</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon, Hudson Bourbon Whiskey, TINCUP American Whiskey, Sazerac Rye Whiskey, Glenfiddich Bourbon Barrel Reserve 14 Year, Four Roses Small Batch Select Bourbon, Jameson Caskmates IPA Edition, Jim Beam Devil’s Cut Bourbon Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Barrell Dovetail Whiskey</v>
+      </c>
+      <c r="K102" t="s">
+        <v>191</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Weller Special Reserve Bourbon, Wild Turkey 101, Wild Turkey American Honey, Wild Turkey Bourbon, Wild Turkey Longbranch, Willett Pot Still Reserve Bourbon, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey</v>
+      </c>
+      <c r="M102" t="s">
+        <v>191</v>
+      </c>
+      <c r="N102" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Glenlivet Founder’s Reserve", "The Macallan Double Cask 12 Years Old", "The Macallan Sherry Oak 12 Years Old", "TINCUP American Whiskey", "Tullamore D.E.W. Irish Whiskey", "TX Blended Whiskey", "Uncle Nearest 1856 Premium Whiskey", "Uncle Nearest 1884 Small Batch Whiskey", "Weller Special Reserve Bourbon", "Wild Turkey 101", "Wild Turkey American Honey", "Wild Turkey Bourbon", "Wild Turkey Longbranch", "Willett Pot Still Reserve Bourbon", "Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey", "Woodford Reserve Kentucky Straight Bourbon Whiskey"</v>
+      </c>
+    </row>
+    <row r="103" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C103" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D103" t="str">
+        <f>MID(C103,6,100)</f>
+        <v>Nikka Coffey Grain Whisky</v>
+      </c>
+      <c r="G103" t="s">
+        <v>282</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="6"/>
+        <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon, Hudson Bourbon Whiskey, TINCUP American Whiskey, Sazerac Rye Whiskey, Glenfiddich Bourbon Barrel Reserve 14 Year, Four Roses Small Batch Select Bourbon, Jameson Caskmates IPA Edition, Jim Beam Devil’s Cut Bourbon Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Barrell Dovetail Whiskey, Nikka Coffey Grain Whisky</v>
+      </c>
+      <c r="K103" t="s">
+        <v>271</v>
+      </c>
+      <c r="L103" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Weller Special Reserve Bourbon, Wild Turkey 101, Wild Turkey American Honey, Wild Turkey Bourbon, Wild Turkey Longbranch, Willett Pot Still Reserve Bourbon, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Rye Whiskey</v>
+      </c>
+      <c r="M103" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="N103" s="9" t="str">
+        <f t="shared" si="8"/>
+        <v>"1792 Small Batch Kentucky Straight Bourbon Whiskey", "Angel’s Envy Kentucky Straight Bourbon Whiskey", "Barrell Dovetail Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Booker’s Bourbon", "Breckenridge Bourbon Whiskey", "Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Bushmills Irish Whiskey", "Canadian Club Whisky", "Chivas Regal 12 Year", "Clan Macgregor Scotch", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "E.H. Taylor, Jr. Small Batch Bourbon", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Fireball Sleeve", "Four Roses Bourbon", "Four Roses Single Barrel Bourbon", "Four Roses Small Batch Bourbon", "Four Roses Small Batch Select Bourbon", "Glenfiddich 12 Year Old Single Malt Scotch Whisky", "Glenfiddich Bourbon Barrel Reserve 14 Year", "Glenmorangie Original 10 Year Old Single Malt Whisky", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "High West Double Rye Whiskey", "Hochstadter’s Slow &amp; Low Rock and Rye", "Hudson Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Apple Flavored Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Caskmates IPA Edition", "Jameson Caskmates Stout Edition", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Jim Beam Devil’s Cut Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Double Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Johnnie Walker White Walker Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Knob Creek Rye Whiskey", "Knob Creek Smoked Maple Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Larceny Small Batch", "Legent Bourbon Whiskey", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Michter’s US-1 Kentucky Straight Bourbon", "Michter’s US-1 Kentucky Straight Rye", "Monkey Shoulder Blended Scotch", "Nikka Coffey Grain Whisky", "Nikka Whisky From The Barrel", "Oban 14 Year Single Malt", "Old Forester 86 Proof Kentucky Straight Bourbon Whisky", "Proper No. Twelve Irish Whiskey", "Redbreast 12 Year", "Redemption Straight Rye Whiskey", "Rittenhouse Rye", "Sazerac Rye Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Glenlivet Founder’s Reserve", "The Macallan Double Cask 12 Years Old", "The Macallan Sherry Oak 12 Years Old", "TINCUP American Whiskey", "Tullamore D.E.W. Irish Whiskey", "TX Blended Whiskey", "Uncle Nearest 1856 Premium Whiskey", "Uncle Nearest 1884 Small Batch Whiskey", "Weller Special Reserve Bourbon", "Wild Turkey 101", "Wild Turkey American Honey", "Wild Turkey Bourbon", "Wild Turkey Longbranch", "Willett Pot Still Reserve Bourbon", "Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey", "Woodford Reserve Kentucky Straight Bourbon Whiskey", "Woodford Reserve Kentucky Straight Rye Whiskey"</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+    </row>
+    <row r="106" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="N106" t="s">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C3:D103" xr:uid="{0FCC3A19-F82E-45FE-B3DC-FF4D20D83893}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="https://wikiliq.org/liquor/jameson-irish-whiskey/" xr:uid="{B2C4F560-B464-4628-AEC3-64BBB45DE90D}"/>
+    <hyperlink ref="C5" r:id="rId2" display="https://wikiliq.org/liquor/bulleit-bourbon/" xr:uid="{9D8B9F2B-E40B-49AC-BA4B-CD0347C8A286}"/>
+    <hyperlink ref="C6" r:id="rId3" display="https://wikiliq.org/liquor/jack-daniels-old-no-7-tennessee-whiskey/" xr:uid="{C7EDB325-D058-4429-9FF5-7BF429129E35}"/>
+    <hyperlink ref="C7" r:id="rId4" display="https://wikiliq.org/liquor/fireball-cinnamon-whisky/" xr:uid="{54983113-0F45-4DA4-8324-001439AB0692}"/>
+    <hyperlink ref="C8" r:id="rId5" display="https://wikiliq.org/liquor/makers-mark-bourbon-whisky/" xr:uid="{524FD3B6-C4E2-4283-9DD3-F1451D752337}"/>
+    <hyperlink ref="C9" r:id="rId6" display="https://wikiliq.org/liquor/jim-beam-bourbon-whiskey/" xr:uid="{63A38D1F-5B1E-406E-92C6-3A33EB81DCA5}"/>
+    <hyperlink ref="C10" r:id="rId7" display="https://wikiliq.org/liquor/basil-haydens-kentucky-straight-bourbon-whiskey/" xr:uid="{EE9E3A73-7A48-401F-A99A-A09E5E59721B}"/>
+    <hyperlink ref="C11" r:id="rId8" display="https://wikiliq.org/liquor/woodford-reserve-kentucky-straight-bourbon-whiskey/" xr:uid="{D7EBD910-2C3B-426F-896A-94A2CBBC3C16}"/>
+    <hyperlink ref="C12" r:id="rId9" display="https://wikiliq.org/liquor/johnnie-walker-black-label-blended-scotch-whisky/" xr:uid="{E7BC97EC-4D64-499A-8CB0-B823A559877C}"/>
+    <hyperlink ref="C13" r:id="rId10" display="https://wikiliq.org/liquor/crown-royal-fine-deluxe-blended-canadian-whisky/" xr:uid="{5B319FE4-FC79-40CF-B73C-D4644E7C178A}"/>
+    <hyperlink ref="C14" r:id="rId11" display="https://wikiliq.org/liquor/skrewball-peanut-butter-whiskey/" xr:uid="{3418888B-8FE3-43E2-9699-A9C18DDA12CA}"/>
+    <hyperlink ref="C15" r:id="rId12" display="https://wikiliq.org/liquor/knob-creek-kentucky-straight-bourbon-whiskey/" xr:uid="{E5CD428E-520A-4894-8F24-D07F8EB9086F}"/>
+    <hyperlink ref="C16" r:id="rId13" display="https://wikiliq.org/liquor/jack-daniels-tennessee-honey/" xr:uid="{A4FD12FE-B4C3-4C1A-A187-E4918B9AB611}"/>
+    <hyperlink ref="C17" r:id="rId14" display="https://wikiliq.org/liquor/bulleit-rye/" xr:uid="{A0368711-6849-4015-82C5-6C3B6753DF08}"/>
+    <hyperlink ref="C18" r:id="rId15" display="https://wikiliq.org/liquor/buffalo-trace-bourbon/" xr:uid="{391AAD83-05B4-41F0-8BA1-F7A5183EAF61}"/>
+    <hyperlink ref="C19" r:id="rId16" display="https://wikiliq.org/liquor/crown-royal-regal-apple-flavored-whisky/" xr:uid="{47376675-B871-4427-9BD4-91BB179A77F9}"/>
+    <hyperlink ref="C20" r:id="rId17" display="https://wikiliq.org/liquor/evan-williams-bourbon/" xr:uid="{951100D3-54E9-4558-802E-48338A74CAB2}"/>
+    <hyperlink ref="C21" r:id="rId18" display="https://wikiliq.org/liquor/johnnie-walker-red-label-blended-scotch-whisky/" xr:uid="{EF1192E1-F37E-4C07-B3EB-09F9304383FC}"/>
+    <hyperlink ref="C22" r:id="rId19" display="https://wikiliq.org/liquor/wild-turkey-101/" xr:uid="{134AADF4-A136-415C-84D2-3F9FC2F5DBC0}"/>
+    <hyperlink ref="C23" r:id="rId20" display="https://wikiliq.org/liquor/the-glenlivet-12-year/" xr:uid="{2D75F382-84FB-4E64-AFF9-9359DE632124}"/>
+    <hyperlink ref="C24" r:id="rId21" display="https://wikiliq.org/liquor/suntory-toki-japanese-whisky/" xr:uid="{72892E88-3597-461B-99F5-28E3F17F0BE6}"/>
+    <hyperlink ref="C25" r:id="rId22" display="https://wikiliq.org/liquor/tullamore-d-e-w-irish-whiskey/" xr:uid="{31842235-93CF-4D60-8CAD-FD58F4A5170B}"/>
+    <hyperlink ref="C26" r:id="rId23" display="https://wikiliq.org/liquor/crown-royal-vanilla-flavored-whisky/" xr:uid="{9B8EE090-CDBA-421A-AF33-C15DE0B07900}"/>
+    <hyperlink ref="C27" r:id="rId24" display="https://wikiliq.org/liquor/jack-daniels-gentleman-jack-tennessee-whiskey/" xr:uid="{FB067045-45EE-4C76-B2AA-DFD99E400D3D}"/>
+    <hyperlink ref="C28" r:id="rId25" display="https://wikiliq.org/liquor/crown-royal-peach-flavored-whisky/" xr:uid="{C5D90627-629D-4CD0-843E-0F606E821A31}"/>
+    <hyperlink ref="C29" r:id="rId26" display="https://wikiliq.org/liquor/elijah-craig-small-batch-bourbon/" xr:uid="{891B5EAE-5540-4D2C-9DEB-0BF638635108}"/>
+    <hyperlink ref="C30" r:id="rId27" display="https://wikiliq.org/liquor/four-roses-bourbon/" xr:uid="{75ECF265-2CB2-49BE-840A-EE7B299AF38E}"/>
+    <hyperlink ref="C31" r:id="rId28" display="https://wikiliq.org/liquor/the-macallan-double-cask-12-years-old/" xr:uid="{D2A82309-1E52-46EC-A6AD-4655EAE8988D}"/>
+    <hyperlink ref="C32" r:id="rId29" display="https://wikiliq.org/liquor/crown-royal-black-blended-canadian-whisky/" xr:uid="{63992731-A029-4988-B653-82862EB79D61}"/>
+    <hyperlink ref="C33" r:id="rId30" display="https://wikiliq.org/liquor/basil-haydens-dark-rye-whiskey/" xr:uid="{8C3BEFAA-1FA8-41EE-B5DA-207830AA8CC8}"/>
+    <hyperlink ref="C34" r:id="rId31" display="https://wikiliq.org/liquor/blantons-single-barrel-bourbon/" xr:uid="{4E62DA89-EC85-4EAE-8FAB-BEBDDD3689CD}"/>
+    <hyperlink ref="C35" r:id="rId32" display="https://wikiliq.org/liquor/hibiki-japanese-harmony-whisky/" xr:uid="{E2DA83FD-2B90-4481-BC03-125CC23538A0}"/>
+    <hyperlink ref="C36" r:id="rId33" display="https://wikiliq.org/liquor/monkey-shoulder-blended-scotch/" xr:uid="{8854AF49-F2CC-432D-9D41-A8EB404B890B}"/>
+    <hyperlink ref="C37" r:id="rId34" display="https://wikiliq.org/liquor/makers-46-bourbon-whisky/" xr:uid="{222ACFE7-86A9-4A59-B3B1-9FE2B75AC9D8}"/>
+    <hyperlink ref="C38" r:id="rId35" display="https://wikiliq.org/liquor/jim-beam-black-extra-aged-bourbon-whiskey/" xr:uid="{37F2200D-46BB-4AFD-9116-2E986A482A99}"/>
+    <hyperlink ref="C39" r:id="rId36" display="https://wikiliq.org/liquor/eagle-rare-10yr-bourbon/" xr:uid="{2E158E38-C7DE-4C41-A78C-34716368412D}"/>
+    <hyperlink ref="C40" r:id="rId37" display="https://wikiliq.org/liquor/angels-envy-kentucky-straight-bourbon-whiskey/" xr:uid="{13708BE1-CA3D-44E7-9541-8F1B8AC9E305}"/>
+    <hyperlink ref="C41" r:id="rId38" display="https://wikiliq.org/liquor/crown-royal-salted-caramel-flavored-whisky/" xr:uid="{06B5E9A4-B9D5-4D4E-ADBF-E86679AA2BF9}"/>
+    <hyperlink ref="C42" r:id="rId39" display="https://wikiliq.org/liquor/jameson-black-barrel/" xr:uid="{9F8910BE-93AE-4FD1-BA35-8ED24E0972DF}"/>
+    <hyperlink ref="C43" r:id="rId40" display="https://wikiliq.org/liquor/laphroaig-10-year-old-islay-single-malt-scotch-whisky/" xr:uid="{BFC83E05-982E-4D12-9614-E1DB74C8A161}"/>
+    <hyperlink ref="C44" r:id="rId41" display="https://wikiliq.org/liquor/proper-no-twelve-irish-whiskey/" xr:uid="{36902300-0F12-4BF1-A6B2-BAA95B652DA9}"/>
+    <hyperlink ref="C45" r:id="rId42" display="https://wikiliq.org/liquor/high-west-american-prairie-bourbon-whiskey/" xr:uid="{2AD7C76E-425F-4F81-9880-62731241D391}"/>
+    <hyperlink ref="C46" r:id="rId43" display="https://wikiliq.org/liquor/four-roses-small-batch-bourbon/" xr:uid="{AED16B76-B973-4046-AD2C-D846BDCDFF96}"/>
+    <hyperlink ref="C47" r:id="rId44" display="https://wikiliq.org/liquor/jack-daniels-tennessee-fire-flavored-whiskey/" xr:uid="{811FC435-183B-49DA-85FB-63CDB0980105}"/>
+    <hyperlink ref="C48" r:id="rId45" display="https://wikiliq.org/liquor/southern-comfort-original/" xr:uid="{4655758F-56E6-4523-A7F6-D577A71C0B4D}"/>
+    <hyperlink ref="C49" r:id="rId46" display="https://wikiliq.org/liquor/woodford-reserve-double-oaked-kentucky-straight-bourbon-whiskey/" xr:uid="{F196BA80-69C7-4689-BDAC-D587C62D336C}"/>
+    <hyperlink ref="C50" r:id="rId47" display="https://wikiliq.org/liquor/the-balvenie-12-year-old-doublewood-single-malt-scotch-whisky/" xr:uid="{6B7A69DD-B026-4526-AEDF-6BFF11D4846B}"/>
+    <hyperlink ref="C51" r:id="rId48" display="https://wikiliq.org/liquor/uncle-nearest-1856-premium-whiskey/" xr:uid="{BF919FA1-9584-4E1E-91D2-8D16F046A5A3}"/>
+    <hyperlink ref="C52" r:id="rId49" display="https://wikiliq.org/liquor/jameson-cold-brew/" xr:uid="{16C1A9B9-809C-4EFE-A296-0C9731415872}"/>
+    <hyperlink ref="C53" r:id="rId50" display="https://wikiliq.org/liquor/the-balvenie-14-year-old-caribbean-cask-single-malt-scotch-whisky/" xr:uid="{D5ED7DD3-7C18-4B1C-9E72-188E63CFB3BF}"/>
+    <hyperlink ref="C54" r:id="rId51" display="https://wikiliq.org/liquor/breckenridge-bourbon-whiskey/" xr:uid="{7A185947-E17D-4B1A-B547-4BB9A2D6231B}"/>
+    <hyperlink ref="C55" r:id="rId52" display="https://wikiliq.org/liquor/chivas-regal-12-year/" xr:uid="{F7B65E75-94B2-4DF3-AC7F-F57E4D09DA56}"/>
+    <hyperlink ref="C56" r:id="rId53" display="https://wikiliq.org/liquor/knob-creek-rye-whiskey/" xr:uid="{18CDCE55-C2F7-4054-8449-CCAD6695F948}"/>
+    <hyperlink ref="C57" r:id="rId54" display="https://wikiliq.org/liquor/weller-special-reserve-bourbon/" xr:uid="{76497080-53C6-45F6-903F-E946DD3D02BD}"/>
+    <hyperlink ref="C58" r:id="rId55" display="https://wikiliq.org/liquor/canadian-club-whisky/" xr:uid="{E206016B-260E-403D-828B-D307A1C35DB9}"/>
+    <hyperlink ref="C59" r:id="rId56" display="https://wikiliq.org/liquor/redemption-straight-rye-whiskey/" xr:uid="{2ABD39E3-3DB1-4AA0-AA2B-48F011EC5BFF}"/>
+    <hyperlink ref="C60" r:id="rId57" display="https://wikiliq.org/liquor/four-roses-single-barrel-bourbon/" xr:uid="{86953528-1244-46BE-A3FC-B0ECB4715D5A}"/>
+    <hyperlink ref="C61" r:id="rId58" display="https://wikiliq.org/liquor/tx-blended-whiskey/" xr:uid="{F0E86771-64CF-4DCA-954D-BDF56FFA0C55}"/>
+    <hyperlink ref="C62" r:id="rId59" display="https://wikiliq.org/liquor/e-h-taylor-jr-small-batch-bourbon/" xr:uid="{9234F58F-EBF4-4204-B867-84ABB187B322}"/>
+    <hyperlink ref="C63" r:id="rId60" display="https://wikiliq.org/liquor/rittenhouse-rye/" xr:uid="{CAFCD6F1-3008-459C-957D-65632DF91D86}"/>
+    <hyperlink ref="C64" r:id="rId61" display="https://wikiliq.org/liquor/larceny-small-batch/" xr:uid="{03D68113-0DA0-496C-BF12-CC91F64E8B98}"/>
+    <hyperlink ref="C65" r:id="rId62" display="https://wikiliq.org/liquor/old-forester-86-proof-kentucky-straight-bourbon-whisky/" xr:uid="{333AF259-BAD8-4CBF-9059-F07CF208D809}"/>
+    <hyperlink ref="C66" r:id="rId63" display="https://wikiliq.org/liquor/legent-bourbon-whiskey/" xr:uid="{D378D6EC-4542-451C-AD2D-679F9D1076B5}"/>
+    <hyperlink ref="C67" r:id="rId64" display="https://wikiliq.org/liquor/wild-turkey-american-honey/" xr:uid="{75EC9C9D-E8C4-4A8C-97C7-0EF4F952D756}"/>
+    <hyperlink ref="C68" r:id="rId65" display="https://wikiliq.org/liquor/jack-daniels-tennessee-apple-flavored-whiskey/" xr:uid="{5C5FC7BF-B5AC-475A-8C06-EFD05530EF01}"/>
+    <hyperlink ref="C69" r:id="rId66" display="https://wikiliq.org/liquor/high-west-double-rye-whiskey/" xr:uid="{18D95D09-AB35-42A1-B15F-9D53E6BE6DBD}"/>
+    <hyperlink ref="C70" r:id="rId67" display="https://wikiliq.org/liquor/jameson-caskmates-stout-edition/" xr:uid="{EBD51123-D177-4B72-8C77-F9AADAE924B7}"/>
+    <hyperlink ref="C71" r:id="rId68" display="https://wikiliq.org/liquor/michters-us-1-kentucky-straight-rye/" xr:uid="{D58106B1-87DB-4B30-8A4B-48FB14A00894}"/>
+    <hyperlink ref="C72" r:id="rId69" display="https://wikiliq.org/liquor/wild-turkey-longbranch/" xr:uid="{EF002CC6-68B3-4DF6-9DFE-EF58E0E4B9F7}"/>
+    <hyperlink ref="C73" r:id="rId70" display="https://wikiliq.org/liquor/glenfiddich-12-year-old-single-malt-scotch-whisky/" xr:uid="{F9ABDC60-F72C-4458-A18A-3B829280468C}"/>
+    <hyperlink ref="C74" r:id="rId71" display="https://wikiliq.org/liquor/knob-creek-smoked-maple-bourbon-whiskey/" xr:uid="{5C317D2F-418E-423F-B990-5678357FC75D}"/>
+    <hyperlink ref="C75" r:id="rId72" display="https://wikiliq.org/liquor/johnnie-walker-white-walker-blended-scotch-whisky/" xr:uid="{D8C30EE2-C1C3-4E91-BE63-99A79686EB0E}"/>
+    <hyperlink ref="C76" r:id="rId73" display="https://wikiliq.org/liquor/bushmills-irish-whiskey/" xr:uid="{43A6C858-EFA1-4D9E-8CC1-5803943374D7}"/>
+    <hyperlink ref="C77" r:id="rId74" display="https://wikiliq.org/liquor/fireball-sleeve/" xr:uid="{5730A2F2-C160-4E2C-8D5E-7F1721FA617E}"/>
+    <hyperlink ref="C78" r:id="rId75" display="https://wikiliq.org/liquor/glenmorangie-original-10-year-old-single-malt-whisky/" xr:uid="{31FF2225-347A-42FB-A9DA-88D434E95C30}"/>
+    <hyperlink ref="C79" r:id="rId76" display="https://wikiliq.org/liquor/1792-small-batch-kentucky-straight-bourbon-whiskey/" xr:uid="{6DD4BAFE-86BC-4FCF-AA03-7CF4DD0C30F9}"/>
+    <hyperlink ref="C80" r:id="rId77" display="https://wikiliq.org/liquor/willett-pot-still-reserve-bourbon/" xr:uid="{038E55AD-B4E8-471E-83CA-790C1625C178}"/>
+    <hyperlink ref="C81" r:id="rId78" display="https://wikiliq.org/liquor/hochstadters-slow-low-rock-and-rye/" xr:uid="{1FA0DF15-91E1-446A-AB37-DF7566B64C9A}"/>
+    <hyperlink ref="C82" r:id="rId79" display="https://wikiliq.org/liquor/the-glenlivet-founders-reserve/" xr:uid="{AE304BF1-C2FF-43C5-88BF-D303CFBB03E9}"/>
+    <hyperlink ref="C83" r:id="rId80" display="https://wikiliq.org/liquor/oban-14-year-single-malt/" xr:uid="{51FAA5D9-955D-403D-8078-C22BC863B498}"/>
+    <hyperlink ref="C84" r:id="rId81" display="https://wikiliq.org/liquor/the-macallan-sherry-oak-12-years-old/" xr:uid="{547F2539-22D5-45D8-9C40-0908D49E5AB8}"/>
+    <hyperlink ref="C85" r:id="rId82" display="https://wikiliq.org/liquor/nikka-whisky-from-the-barrel/" xr:uid="{346EE999-9E43-4FAF-84CC-F827EE274874}"/>
+    <hyperlink ref="C86" r:id="rId83" display="https://wikiliq.org/liquor/michters-us-1-kentucky-straight-bourbon/" xr:uid="{A5B2D3F2-052B-4DE9-861B-332253B52F33}"/>
+    <hyperlink ref="C87" r:id="rId84" display="https://wikiliq.org/liquor/clan-macgregor-scotch/" xr:uid="{C8DB460A-D8F4-4489-AE9D-FF18C0FD8A81}"/>
+    <hyperlink ref="C88" r:id="rId85" display="https://wikiliq.org/liquor/redbreast-12-year/" xr:uid="{DC691C8B-022D-421E-BB83-2388731F7E07}"/>
+    <hyperlink ref="C89" r:id="rId86" display="https://wikiliq.org/liquor/buchanans-deluxe-aged-12-years-blended-scotch-whisky/" xr:uid="{D42EC577-5093-49BA-B1C3-141157B01AD1}"/>
+    <hyperlink ref="C90" r:id="rId87" display="https://wikiliq.org/liquor/wild-turkey-bourbon/" xr:uid="{52BA6482-252B-4B71-9DED-9CF28BB57075}"/>
+    <hyperlink ref="C91" r:id="rId88" display="https://wikiliq.org/liquor/johnnie-walker-double-black-label-blended-scotch-whisky/" xr:uid="{31CA7A40-0722-41AD-8252-3C3612572E99}"/>
+    <hyperlink ref="C92" r:id="rId89" display="https://wikiliq.org/liquor/woodford-reserve-kentucky-straight-rye-whiskey/" xr:uid="{999D2680-EB85-4EFD-A3EF-D155FFB13AD6}"/>
+    <hyperlink ref="C93" r:id="rId90" display="https://wikiliq.org/liquor/bookers-bourbon/" xr:uid="{BC13A747-8C01-47CB-88C5-D7B25232E0A2}"/>
+    <hyperlink ref="C94" r:id="rId91" display="https://wikiliq.org/liquor/hudson-bourbon-whiskey/" xr:uid="{46E2BC77-DECD-4C6D-8867-0FA3FC5CA51F}"/>
+    <hyperlink ref="C95" r:id="rId92" display="https://wikiliq.org/liquor/tincup-american-whiskey/" xr:uid="{F7E63265-809C-481D-B468-A8189E15F5C3}"/>
+    <hyperlink ref="C96" r:id="rId93" display="https://wikiliq.org/liquor/sazerac-rye-whiskey/" xr:uid="{A22B1F4F-C106-47F5-BD04-3BFC824625EA}"/>
+    <hyperlink ref="C97" r:id="rId94" display="https://wikiliq.org/liquor/glenfiddich-bourbon-barrel-reserve-14-year/" xr:uid="{A2EF4349-B4DE-4237-9D64-8EEBB8C9A4AD}"/>
+    <hyperlink ref="C98" r:id="rId95" display="https://wikiliq.org/liquor/four-roses-small-batch-select-bourbon/" xr:uid="{EC262663-CD0B-463E-9675-0B8F5651C15E}"/>
+    <hyperlink ref="C99" r:id="rId96" display="https://wikiliq.org/liquor/jameson-caskmates-ipa-edition/" xr:uid="{956FB813-366A-4597-B5CF-C7A4C567E834}"/>
+    <hyperlink ref="C100" r:id="rId97" display="https://wikiliq.org/liquor/jim-beam-devils-cut-bourbon-whiskey/" xr:uid="{8FE4C847-09E0-499D-A22E-5AA4959A944F}"/>
+    <hyperlink ref="C101" r:id="rId98" display="https://wikiliq.org/liquor/uncle-nearest-1884-small-batch-whiskey/" xr:uid="{83813BD1-BDA9-4DC9-BA48-C6C70940BFF3}"/>
+    <hyperlink ref="C102" r:id="rId99" display="https://wikiliq.org/liquor/barrell-dovetail-whiskey/" xr:uid="{9B786FAD-CC8F-4F22-B4BB-00276118D9B4}"/>
+    <hyperlink ref="C103" r:id="rId100" display="https://wikiliq.org/liquor/nikka-coffey-grain-whisky/" xr:uid="{B4547427-E71C-4E7C-8FCE-AB454797EE65}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId101"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCC3A19-F82E-45FE-B3DC-FF4D20D83893}">
+  <dimension ref="C1:P103"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="42.375" customWidth="1"/>
     <col min="11" max="11" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.3">
       <c r="K1" t="s">
         <v>287</v>
       </c>
@@ -11046,7 +14609,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>288</v>
       </c>
@@ -11059,8 +14622,20 @@
       <c r="K3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>394</v>
+      </c>
+      <c r="N3" t="s">
+        <v>395</v>
+      </c>
+      <c r="O3" t="s">
+        <v>396</v>
+      </c>
+      <c r="P3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
@@ -11074,8 +14649,11 @@
       <c r="K4" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
@@ -11097,8 +14675,15 @@
         <f>K4&amp;", "&amp;K5</f>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey</v>
       </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" t="str">
+        <f>N3&amp;M4&amp;O3&amp;M5&amp;N3</f>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey"</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
@@ -11120,8 +14705,15 @@
         <f>L5&amp;", "&amp;K6</f>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey</v>
       </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>190</v>
+      </c>
+      <c r="N6" t="str">
+        <f>N5&amp;$P$3&amp;M6&amp;$N$3</f>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey"</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
@@ -11143,8 +14735,15 @@
         <f t="shared" ref="L7:L70" si="2">L6&amp;", "&amp;K7</f>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey</v>
       </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>214</v>
+      </c>
+      <c r="N7" t="str">
+        <f>N6&amp;$P$3&amp;M7&amp;$N$3</f>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon"</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
@@ -11166,8 +14765,15 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey</v>
       </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>198</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" ref="N8:N53" si="3">N7&amp;$P$3&amp;M8&amp;$N$3</f>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon"</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
@@ -11189,8 +14795,15 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon</v>
       </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
+        <v>185</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon"</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
@@ -11212,8 +14825,15 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon</v>
       </c>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye"</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
@@ -11235,8 +14855,15 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey</v>
       </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>212</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky"</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>30</v>
       </c>
@@ -11258,8 +14885,15 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky</v>
       </c>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>193</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky"</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C13" s="5" t="s">
         <v>34</v>
       </c>
@@ -11281,13 +14915,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon</v>
       </c>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M13" t="s">
+        <v>208</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky"</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C14" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" ref="D14:D77" si="3">MID(C14,5,100)</f>
+        <f t="shared" ref="D14:D77" si="4">MID(C14,5,100)</f>
         <v>Skrewball Peanut Butter Whiskey</v>
       </c>
       <c r="G14" t="s">
@@ -11304,13 +14945,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon</v>
       </c>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
+        <v>199</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky"</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C15" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Knob Creek Kentucky Straight Bourbon Whiskey</v>
       </c>
       <c r="G15" t="s">
@@ -11327,13 +14975,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye</v>
       </c>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M15" t="s">
+        <v>221</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky"</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C16" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Jack Daniel’s Tennessee Honey</v>
       </c>
       <c r="G16" t="s">
@@ -11350,13 +15005,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey</v>
       </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" t="s">
+        <v>206</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky"</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C17" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Bulleit Rye</v>
       </c>
       <c r="G17" t="s">
@@ -11373,13 +15035,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M17" t="s">
+        <v>219</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon"</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C18" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Buffalo Trace Bourbon</v>
       </c>
       <c r="G18" t="s">
@@ -11396,13 +15065,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M18" t="s">
+        <v>209</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon"</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C19" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Crown Royal Regal Apple Flavored Whisky</v>
       </c>
       <c r="G19" t="s">
@@ -11419,13 +15095,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch</v>
       </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" t="s">
+        <v>200</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon"</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C20" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Evan Williams Bourbon</v>
       </c>
       <c r="G20" t="s">
@@ -11442,13 +15125,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M20" t="s">
+        <v>187</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky"</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C21" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Johnnie Walker Red Label Blended Scotch Whisky</v>
       </c>
       <c r="G21" t="s">
@@ -11465,13 +15155,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M21" t="s">
+        <v>210</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon"</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C22" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Wild Turkey 101</v>
       </c>
       <c r="G22" t="s">
@@ -11488,13 +15185,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M22" t="s">
+        <v>226</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon"</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C23" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>The Glenlivet 12 Year</v>
       </c>
       <c r="G23" t="s">
@@ -11511,13 +15215,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M23" t="s">
+        <v>215</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky"</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C24" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Suntory Toki Japanese Whisky</v>
       </c>
       <c r="G24" t="s">
@@ -11534,13 +15245,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M24" t="s">
+        <v>225</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey"</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C25" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Tullamore D.E.W. Irish Whiskey</v>
       </c>
       <c r="G25" t="s">
@@ -11557,13 +15275,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" t="s">
+        <v>207</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey"</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C26" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Crown Royal Vanilla Flavored Whisky</v>
       </c>
       <c r="G26" t="s">
@@ -11580,13 +15305,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M26" t="s">
+        <v>186</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey"</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Jack Daniel’s Gentleman Jack Tennessee Whiskey</v>
       </c>
       <c r="G27" t="s">
@@ -11603,13 +15335,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M27" t="s">
+        <v>227</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey"</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C28" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Crown Royal Peach Flavored Whisky</v>
       </c>
       <c r="G28" t="s">
@@ -11626,13 +15365,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" t="s">
+        <v>196</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey"</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C29" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Elijah Craig Small Batch Bourbon</v>
       </c>
       <c r="G29" t="s">
@@ -11649,13 +15395,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" t="s">
+        <v>222</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel"</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C30" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Four Roses Bourbon</v>
       </c>
       <c r="G30" t="s">
@@ -11672,13 +15425,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" t="s">
+        <v>232</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew"</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C31" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>The Macallan Double Cask 12 Years Old</v>
       </c>
       <c r="G31" t="s">
@@ -11695,13 +15455,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" t="s">
+        <v>11</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey"</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C32" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Crown Royal Black Blended Canadian Whisky</v>
       </c>
       <c r="G32" t="s">
@@ -11718,13 +15485,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon</v>
       </c>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M32" t="s">
+        <v>218</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey"</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C33" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Basil Hayden’s Dark Rye Whiskey</v>
       </c>
       <c r="G33" t="s">
@@ -11741,13 +15515,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon</v>
       </c>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M33" t="s">
+        <v>189</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey"</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C34" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Blanton’s Single Barrel Bourbon</v>
       </c>
       <c r="G34" t="s">
@@ -11764,13 +15545,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon</v>
       </c>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M34" t="s">
+        <v>192</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky"</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C35" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Hibiki Japanese Harmony Whisky</v>
       </c>
       <c r="G35" t="s">
@@ -11787,13 +15575,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon</v>
       </c>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M35" t="s">
+        <v>201</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky"</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C36" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Monkey Shoulder Blended Scotch</v>
       </c>
       <c r="G36" t="s">
@@ -11810,13 +15605,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky</v>
       </c>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M36" t="s">
+        <v>195</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey"</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C37" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Maker’s 46 Bourbon Whisky</v>
       </c>
       <c r="G37" t="s">
@@ -11833,13 +15635,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year</v>
       </c>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M37" t="s">
+        <v>223</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky"</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C38" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Jim Beam Black Extra Aged Bourbon Whiskey</v>
       </c>
       <c r="G38" t="s">
@@ -11856,13 +15665,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky</v>
       </c>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M38" t="s">
+        <v>217</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky"</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C39" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Eagle Rare 10yr Bourbon</v>
       </c>
       <c r="G39" t="s">
@@ -11879,13 +15695,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky</v>
       </c>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M39" t="s">
+        <v>188</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky"</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C40" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Angel’s Envy Kentucky Straight Bourbon Whiskey</v>
       </c>
       <c r="G40" t="s">
@@ -11902,13 +15725,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey</v>
       </c>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M40" t="s">
+        <v>216</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch"</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C41" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Crown Royal Salted Caramel Flavored Whisky</v>
       </c>
       <c r="G41" t="s">
@@ -11925,13 +15755,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey</v>
       </c>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M41" t="s">
+        <v>224</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey"</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C42" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Jameson Black Barrel</v>
       </c>
       <c r="G42" t="s">
@@ -11948,13 +15785,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye</v>
       </c>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M42" t="s">
+        <v>194</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey"</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C43" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Laphroaig 10 Year Old Islay Single Malt Scotch Whisky</v>
       </c>
       <c r="G43" t="s">
@@ -11971,13 +15815,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey</v>
       </c>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M43" t="s">
+        <v>228</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original"</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C44" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Proper No. Twelve Irish Whiskey</v>
       </c>
       <c r="G44" t="s">
@@ -11994,13 +15845,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey</v>
       </c>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M44" t="s">
+        <v>204</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky"</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C45" s="5" t="s">
         <v>91</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>High West American Prairie Bourbon Whiskey</v>
       </c>
       <c r="G45" t="s">
@@ -12017,13 +15875,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey</v>
       </c>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M45" t="s">
+        <v>230</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky"</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C46" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Four Roses Small Batch Bourbon</v>
       </c>
       <c r="G46" t="s">
@@ -12040,13 +15905,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey</v>
       </c>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M46" t="s">
+        <v>233</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky"</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C47" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Jack Daniel’s Tennessee Fire Flavored Whiskey</v>
       </c>
       <c r="G47" t="s">
@@ -12063,13 +15935,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey</v>
       </c>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M47" t="s">
+        <v>203</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year"</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C48" s="5" t="s">
         <v>95</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Southern Comfort Original</v>
       </c>
       <c r="G48" t="s">
@@ -12086,13 +15965,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M48" t="s">
+        <v>211</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Macallan Double Cask 12 Years Old"</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C49" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey</v>
       </c>
       <c r="G49" t="s">
@@ -12109,13 +15995,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M49" t="s">
+        <v>205</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Macallan Double Cask 12 Years Old", "Tullamore D.E.W. Irish Whiskey"</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C50" s="5" t="s">
         <v>98</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky</v>
       </c>
       <c r="G50" t="s">
@@ -12132,13 +16025,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" t="s">
+        <v>231</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Macallan Double Cask 12 Years Old", "Tullamore D.E.W. Irish Whiskey", "Uncle Nearest 1856 Premium Whiskey"</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C51" s="5" t="s">
         <v>100</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Uncle Nearest 1856 Premium Whiskey</v>
       </c>
       <c r="G51" t="s">
@@ -12155,13 +16055,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" t="s">
+        <v>202</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Macallan Double Cask 12 Years Old", "Tullamore D.E.W. Irish Whiskey", "Uncle Nearest 1856 Premium Whiskey", "Wild Turkey 101"</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C52" s="5" t="s">
         <v>102</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Jameson Cold Brew</v>
       </c>
       <c r="G52" t="s">
@@ -12178,13 +16085,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M52" t="s">
+        <v>229</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Macallan Double Cask 12 Years Old", "Tullamore D.E.W. Irish Whiskey", "Uncle Nearest 1856 Premium Whiskey", "Wild Turkey 101", "Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey"</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C53" s="5" t="s">
         <v>103</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky</v>
       </c>
       <c r="G53" t="s">
@@ -12201,13 +16115,20 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" t="s">
+        <v>191</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="3"/>
+        <v>"Angel’s Envy Kentucky Straight Bourbon Whiskey", "Basil Hayden’s Dark Rye Whiskey", "Basil Hayden’s Kentucky Straight Bourbon Whiskey", "Blanton’s Single Barrel Bourbon", "Buffalo Trace Bourbon", "Bulleit Bourbon", "Bulleit Rye", "Crown Royal Black Blended Canadian Whisky", "Crown Royal Fine Deluxe Blended Canadian Whisky", "Crown Royal Peach Flavored Whisky", "Crown Royal Regal Apple Flavored Whisky", "Crown Royal Salted Caramel Flavored Whisky", "Crown Royal Vanilla Flavored Whisky", "Eagle Rare 10yr Bourbon", "Elijah Craig Small Batch Bourbon", "Evan Williams Bourbon", "Fireball Cinnamon Whisky", "Four Roses Bourbon", "Four Roses Small Batch Bourbon", "Hibiki Japanese Harmony Whisky", "High West American Prairie Bourbon Whiskey", "Jack Daniel’s Gentleman Jack Tennessee Whiskey", "Jack Daniel’s Old No. 7 Tennessee Whiskey", "Jack Daniel’s Tennessee Fire Flavored Whiskey", "Jack Daniel’s Tennessee Honey", "Jameson Black Barrel", "Jameson Cold Brew", "Jameson Irish Whiskey", "Jim Beam Black Extra Aged Bourbon Whiskey", "Jim Beam Bourbon Whiskey", "Johnnie Walker Black Label Blended Scotch Whisky", "Johnnie Walker Red Label Blended Scotch Whisky", "Knob Creek Kentucky Straight Bourbon Whiskey", "Laphroaig 10 Year Old Islay Single Malt Scotch Whisky", "Maker’s 46 Bourbon Whisky", "Maker’s Mark Bourbon Whisky", "Monkey Shoulder Blended Scotch", "Proper No. Twelve Irish Whiskey", "Skrewball Peanut Butter Whiskey", "Southern Comfort Original", "Suntory Toki Japanese Whisky", "The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky", "The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky", "The Glenlivet 12 Year", "The Macallan Double Cask 12 Years Old", "Tullamore D.E.W. Irish Whiskey", "Uncle Nearest 1856 Premium Whiskey", "Wild Turkey 101", "Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey", "Woodford Reserve Kentucky Straight Bourbon Whiskey"</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C54" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Breckenridge Bourbon Whiskey</v>
       </c>
       <c r="G54" t="s">
@@ -12224,13 +16145,16 @@
         <f t="shared" si="2"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="N54" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C55" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Chivas Regal 12 Year</v>
       </c>
       <c r="G55" t="s">
@@ -12248,12 +16172,12 @@
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey</v>
       </c>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C56" s="5" t="s">
         <v>108</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Knob Creek Rye Whiskey</v>
       </c>
       <c r="G56" t="s">
@@ -12271,12 +16195,12 @@
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey</v>
       </c>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C57" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Weller Special Reserve Bourbon</v>
       </c>
       <c r="G57" t="s">
@@ -12294,12 +16218,12 @@
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C58" s="5" t="s">
         <v>111</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Canadian Club Whisky</v>
       </c>
       <c r="G58" t="s">
@@ -12317,12 +16241,12 @@
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C59" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Redemption Straight Rye Whiskey</v>
       </c>
       <c r="G59" t="s">
@@ -12340,12 +16264,12 @@
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C60" s="5" t="s">
         <v>115</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Four Roses Single Barrel Bourbon</v>
       </c>
       <c r="G60" t="s">
@@ -12363,12 +16287,12 @@
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C61" s="5" t="s">
         <v>116</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TX Blended Whiskey</v>
       </c>
       <c r="G61" t="s">
@@ -12386,12 +16310,12 @@
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C62" s="5" t="s">
         <v>119</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>E.H. Taylor, Jr. Small Batch Bourbon</v>
       </c>
       <c r="G62" t="s">
@@ -12409,12 +16333,12 @@
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C63" s="5" t="s">
         <v>121</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Rittenhouse Rye</v>
       </c>
       <c r="G63" t="s">
@@ -12432,12 +16356,12 @@
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey</v>
       </c>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C64" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Larceny Small Batch</v>
       </c>
       <c r="G64" t="s">
@@ -12460,7 +16384,7 @@
         <v>125</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Old Forester 86 Proof Kentucky Straight Bourbon Whisky</v>
       </c>
       <c r="G65" t="s">
@@ -12483,7 +16407,7 @@
         <v>127</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Legent Bourbon Whiskey</v>
       </c>
       <c r="G66" t="s">
@@ -12506,7 +16430,7 @@
         <v>129</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Wild Turkey American Honey</v>
       </c>
       <c r="G67" t="s">
@@ -12529,7 +16453,7 @@
         <v>130</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Jack Daniel’s Tennessee Apple Flavored Whiskey</v>
       </c>
       <c r="G68" t="s">
@@ -12552,7 +16476,7 @@
         <v>131</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>High West Double Rye Whiskey</v>
       </c>
       <c r="G69" t="s">
@@ -12575,7 +16499,7 @@
         <v>132</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Jameson Caskmates Stout Edition</v>
       </c>
       <c r="G70" t="s">
@@ -12598,21 +16522,21 @@
         <v>133</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Michter’s US-1 Kentucky Straight Rye</v>
       </c>
       <c r="G71" t="s">
         <v>251</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" ref="H71:H103" si="4">H70&amp;", "&amp;G71</f>
+        <f t="shared" ref="H71:H103" si="5">H70&amp;", "&amp;G71</f>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye</v>
       </c>
       <c r="K71" t="s">
         <v>216</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" ref="L71:L103" si="5">L70&amp;", "&amp;K71</f>
+        <f t="shared" ref="L71:L103" si="6">L70&amp;", "&amp;K71</f>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch</v>
       </c>
     </row>
@@ -12621,21 +16545,21 @@
         <v>135</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Wild Turkey Longbranch</v>
       </c>
       <c r="G72" t="s">
         <v>252</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch</v>
       </c>
       <c r="K72" t="s">
         <v>282</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky</v>
       </c>
     </row>
@@ -12644,21 +16568,21 @@
         <v>136</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Glenfiddich 12 Year Old Single Malt Scotch Whisky</v>
       </c>
       <c r="G73" t="s">
         <v>253</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky</v>
       </c>
       <c r="K73" t="s">
         <v>265</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel</v>
       </c>
     </row>
@@ -12667,21 +16591,21 @@
         <v>138</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Knob Creek Smoked Maple Bourbon Whiskey</v>
       </c>
       <c r="G74" t="s">
         <v>254</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey</v>
       </c>
       <c r="K74" t="s">
         <v>263</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt</v>
       </c>
     </row>
@@ -12690,21 +16614,21 @@
         <v>139</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Johnnie Walker White Walker Blended Scotch Whisky</v>
       </c>
       <c r="G75" t="s">
         <v>255</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky</v>
       </c>
       <c r="K75" t="s">
         <v>245</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky</v>
       </c>
     </row>
@@ -12713,21 +16637,21 @@
         <v>140</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Bushmills Irish Whiskey</v>
       </c>
       <c r="G76" t="s">
         <v>256</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey</v>
       </c>
       <c r="K76" t="s">
         <v>224</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey</v>
       </c>
     </row>
@@ -12736,21 +16660,21 @@
         <v>143</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Fireball Sleeve</v>
       </c>
       <c r="G77" t="s">
         <v>257</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve</v>
       </c>
       <c r="K77" t="s">
         <v>268</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year</v>
       </c>
     </row>
@@ -12759,21 +16683,21 @@
         <v>144</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" ref="D78:D102" si="6">MID(C78,5,100)</f>
+        <f t="shared" ref="D78:D102" si="7">MID(C78,5,100)</f>
         <v>Glenmorangie Original 10 Year Old Single Malt Whisky</v>
       </c>
       <c r="G78" t="s">
         <v>258</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky</v>
       </c>
       <c r="K78" t="s">
         <v>239</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey</v>
       </c>
     </row>
@@ -12782,21 +16706,21 @@
         <v>146</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey</v>
       </c>
       <c r="G79" t="s">
         <v>259</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey</v>
       </c>
       <c r="K79" t="s">
         <v>243</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye</v>
       </c>
     </row>
@@ -12805,21 +16729,21 @@
         <v>148</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Willett Pot Still Reserve Bourbon</v>
       </c>
       <c r="G80" t="s">
         <v>260</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon</v>
       </c>
       <c r="K80" t="s">
         <v>275</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey</v>
       </c>
     </row>
@@ -12828,21 +16752,21 @@
         <v>150</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Hochstadter’s Slow &amp; Low Rock and Rye</v>
       </c>
       <c r="G81" t="s">
         <v>261</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye</v>
       </c>
       <c r="K81" t="s">
         <v>194</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey</v>
       </c>
     </row>
@@ -12851,21 +16775,21 @@
         <v>152</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>The Glenlivet Founder’s Reserve</v>
       </c>
       <c r="G82" t="s">
         <v>262</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve</v>
       </c>
       <c r="K82" t="s">
         <v>228</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original</v>
       </c>
     </row>
@@ -12874,21 +16798,21 @@
         <v>153</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Oban 14 Year Single Malt</v>
       </c>
       <c r="G83" t="s">
         <v>263</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt</v>
       </c>
       <c r="K83" t="s">
         <v>204</v>
       </c>
       <c r="L83" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky</v>
       </c>
     </row>
@@ -12897,21 +16821,21 @@
         <v>155</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>The Macallan Sherry Oak 12 Years Old</v>
       </c>
       <c r="G84" t="s">
         <v>264</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old</v>
       </c>
       <c r="K84" t="s">
         <v>230</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky</v>
       </c>
     </row>
@@ -12920,21 +16844,21 @@
         <v>156</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Nikka Whisky From The Barrel</v>
       </c>
       <c r="G85" t="s">
         <v>265</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel</v>
       </c>
       <c r="K85" t="s">
         <v>233</v>
       </c>
       <c r="L85" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky</v>
       </c>
     </row>
@@ -12943,21 +16867,21 @@
         <v>158</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Michter’s US-1 Kentucky Straight Bourbon</v>
       </c>
       <c r="G86" t="s">
         <v>266</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon</v>
       </c>
       <c r="K86" t="s">
         <v>203</v>
       </c>
       <c r="L86" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year</v>
       </c>
     </row>
@@ -12966,21 +16890,21 @@
         <v>159</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Clan Macgregor Scotch</v>
       </c>
       <c r="G87" t="s">
         <v>267</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch</v>
       </c>
       <c r="K87" t="s">
         <v>262</v>
       </c>
       <c r="L87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve</v>
       </c>
     </row>
@@ -12989,21 +16913,21 @@
         <v>161</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Redbreast 12 Year</v>
       </c>
       <c r="G88" t="s">
         <v>268</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year</v>
       </c>
       <c r="K88" t="s">
         <v>211</v>
       </c>
       <c r="L88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old</v>
       </c>
     </row>
@@ -13012,21 +16936,21 @@
         <v>163</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky</v>
       </c>
       <c r="G89" t="s">
         <v>269</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky</v>
       </c>
       <c r="K89" t="s">
         <v>264</v>
       </c>
       <c r="L89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old</v>
       </c>
     </row>
@@ -13035,21 +16959,21 @@
         <v>165</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Wild Turkey Bourbon</v>
       </c>
       <c r="G90" t="s">
         <v>52</v>
       </c>
       <c r="H90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon</v>
       </c>
       <c r="K90" t="s">
         <v>274</v>
       </c>
       <c r="L90" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey</v>
       </c>
     </row>
@@ -13058,21 +16982,21 @@
         <v>166</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Johnnie Walker Double Black Label Blended Scotch Whisky</v>
       </c>
       <c r="G91" t="s">
         <v>270</v>
       </c>
       <c r="H91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky</v>
       </c>
       <c r="K91" t="s">
         <v>205</v>
       </c>
       <c r="L91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey</v>
       </c>
     </row>
@@ -13081,21 +17005,21 @@
         <v>167</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Woodford Reserve Kentucky Straight Rye Whiskey</v>
       </c>
       <c r="G92" t="s">
         <v>271</v>
       </c>
       <c r="H92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey</v>
       </c>
       <c r="K92" t="s">
         <v>241</v>
       </c>
       <c r="L92" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey</v>
       </c>
     </row>
@@ -13104,21 +17028,21 @@
         <v>168</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Booker’s Bourbon</v>
       </c>
       <c r="G93" t="s">
         <v>272</v>
       </c>
       <c r="H93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon</v>
       </c>
       <c r="K93" t="s">
         <v>231</v>
       </c>
       <c r="L93" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey</v>
       </c>
     </row>
@@ -13127,21 +17051,21 @@
         <v>170</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Hudson Bourbon Whiskey</v>
       </c>
       <c r="G94" t="s">
         <v>273</v>
       </c>
       <c r="H94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon, Hudson Bourbon Whiskey</v>
       </c>
       <c r="K94" t="s">
         <v>280</v>
       </c>
       <c r="L94" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey, Uncle Nearest 1884 Small Batch Whiskey</v>
       </c>
     </row>
@@ -13150,21 +17074,21 @@
         <v>172</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>TINCUP American Whiskey</v>
       </c>
       <c r="G95" t="s">
         <v>274</v>
       </c>
       <c r="H95" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon, Hudson Bourbon Whiskey, TINCUP American Whiskey</v>
       </c>
       <c r="K95" t="s">
         <v>237</v>
       </c>
       <c r="L95" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Weller Special Reserve Bourbon</v>
       </c>
     </row>
@@ -13173,21 +17097,21 @@
         <v>174</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Sazerac Rye Whiskey</v>
       </c>
       <c r="G96" t="s">
         <v>275</v>
       </c>
       <c r="H96" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon, Hudson Bourbon Whiskey, TINCUP American Whiskey, Sazerac Rye Whiskey</v>
       </c>
       <c r="K96" t="s">
         <v>202</v>
       </c>
       <c r="L96" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Weller Special Reserve Bourbon, Wild Turkey 101</v>
       </c>
     </row>
@@ -13196,21 +17120,21 @@
         <v>176</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Glenfiddich Bourbon Barrel Reserve 14 Year</v>
       </c>
       <c r="G97" t="s">
         <v>276</v>
       </c>
       <c r="H97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon, Hudson Bourbon Whiskey, TINCUP American Whiskey, Sazerac Rye Whiskey, Glenfiddich Bourbon Barrel Reserve 14 Year</v>
       </c>
       <c r="K97" t="s">
         <v>247</v>
       </c>
       <c r="L97" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Weller Special Reserve Bourbon, Wild Turkey 101, Wild Turkey American Honey</v>
       </c>
     </row>
@@ -13219,21 +17143,21 @@
         <v>177</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Four Roses Small Batch Select Bourbon</v>
       </c>
       <c r="G98" t="s">
         <v>277</v>
       </c>
       <c r="H98" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon, Hudson Bourbon Whiskey, TINCUP American Whiskey, Sazerac Rye Whiskey, Glenfiddich Bourbon Barrel Reserve 14 Year, Four Roses Small Batch Select Bourbon</v>
       </c>
       <c r="K98" t="s">
         <v>52</v>
       </c>
       <c r="L98" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Weller Special Reserve Bourbon, Wild Turkey 101, Wild Turkey American Honey, Wild Turkey Bourbon</v>
       </c>
     </row>
@@ -13242,21 +17166,21 @@
         <v>178</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Jameson Caskmates IPA Edition</v>
       </c>
       <c r="G99" t="s">
         <v>278</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon, Hudson Bourbon Whiskey, TINCUP American Whiskey, Sazerac Rye Whiskey, Glenfiddich Bourbon Barrel Reserve 14 Year, Four Roses Small Batch Select Bourbon, Jameson Caskmates IPA Edition</v>
       </c>
       <c r="K99" t="s">
         <v>252</v>
       </c>
       <c r="L99" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Weller Special Reserve Bourbon, Wild Turkey 101, Wild Turkey American Honey, Wild Turkey Bourbon, Wild Turkey Longbranch</v>
       </c>
     </row>
@@ -13265,21 +17189,21 @@
         <v>179</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Jim Beam Devil’s Cut Bourbon Whiskey</v>
       </c>
       <c r="G100" t="s">
         <v>279</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon, Hudson Bourbon Whiskey, TINCUP American Whiskey, Sazerac Rye Whiskey, Glenfiddich Bourbon Barrel Reserve 14 Year, Four Roses Small Batch Select Bourbon, Jameson Caskmates IPA Edition, Jim Beam Devil’s Cut Bourbon Whiskey</v>
       </c>
       <c r="K100" t="s">
         <v>260</v>
       </c>
       <c r="L100" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Weller Special Reserve Bourbon, Wild Turkey 101, Wild Turkey American Honey, Wild Turkey Bourbon, Wild Turkey Longbranch, Willett Pot Still Reserve Bourbon</v>
       </c>
     </row>
@@ -13288,21 +17212,21 @@
         <v>180</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Uncle Nearest 1884 Small Batch Whiskey</v>
       </c>
       <c r="G101" t="s">
         <v>280</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon, Hudson Bourbon Whiskey, TINCUP American Whiskey, Sazerac Rye Whiskey, Glenfiddich Bourbon Barrel Reserve 14 Year, Four Roses Small Batch Select Bourbon, Jameson Caskmates IPA Edition, Jim Beam Devil’s Cut Bourbon Whiskey, Uncle Nearest 1884 Small Batch Whiskey</v>
       </c>
       <c r="K101" t="s">
         <v>229</v>
       </c>
       <c r="L101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Weller Special Reserve Bourbon, Wild Turkey 101, Wild Turkey American Honey, Wild Turkey Bourbon, Wild Turkey Longbranch, Willett Pot Still Reserve Bourbon, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey</v>
       </c>
     </row>
@@ -13311,21 +17235,21 @@
         <v>181</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Barrell Dovetail Whiskey</v>
       </c>
       <c r="G102" t="s">
         <v>281</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon, Hudson Bourbon Whiskey, TINCUP American Whiskey, Sazerac Rye Whiskey, Glenfiddich Bourbon Barrel Reserve 14 Year, Four Roses Small Batch Select Bourbon, Jameson Caskmates IPA Edition, Jim Beam Devil’s Cut Bourbon Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Barrell Dovetail Whiskey</v>
       </c>
       <c r="K102" t="s">
         <v>191</v>
       </c>
       <c r="L102" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Weller Special Reserve Bourbon, Wild Turkey 101, Wild Turkey American Honey, Wild Turkey Bourbon, Wild Turkey Longbranch, Willett Pot Still Reserve Bourbon, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey</v>
       </c>
     </row>
@@ -13341,23 +17265,19 @@
         <v>282</v>
       </c>
       <c r="H103" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Jameson Irish Whiskey, Bulleit Bourbon, Jack Daniel’s Old No. 7 Tennessee Whiskey, Fireball Cinnamon Whisky, Maker’s Mark Bourbon Whisky, Jim Beam Bourbon Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Skrewball Peanut Butter Whiskey, Knob Creek Kentucky Straight Bourbon Whiskey, Jack Daniel’s Tennessee Honey, Bulleit Rye, Buffalo Trace Bourbon, Crown Royal Regal Apple Flavored Whisky, Evan Williams Bourbon, Johnnie Walker Red Label Blended Scotch Whisky, Wild Turkey 101, The Glenlivet 12 Year, Suntory Toki Japanese Whisky, Tullamore D.E.W. Irish Whiskey, Crown Royal Vanilla Flavored Whisky, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Crown Royal Peach Flavored Whisky, Elijah Craig Small Batch Bourbon, Four Roses Bourbon, The Macallan Double Cask 12 Years Old, Crown Royal Black Blended Canadian Whisky, Basil Hayden’s Dark Rye Whiskey, Blanton’s Single Barrel Bourbon, Hibiki Japanese Harmony Whisky, Monkey Shoulder Blended Scotch, Maker’s 46 Bourbon Whisky, Jim Beam Black Extra Aged Bourbon Whiskey, Eagle Rare 10yr Bourbon, Angel’s Envy Kentucky Straight Bourbon Whiskey, Crown Royal Salted Caramel Flavored Whisky, Jameson Black Barrel, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Proper No. Twelve Irish Whiskey, High West American Prairie Bourbon Whiskey, Four Roses Small Batch Bourbon, Jack Daniel’s Tennessee Fire Flavored Whiskey, Southern Comfort Original, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, Uncle Nearest 1856 Premium Whiskey, Jameson Cold Brew, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, Breckenridge Bourbon Whiskey, Chivas Regal 12 Year, Knob Creek Rye Whiskey, Weller Special Reserve Bourbon, Canadian Club Whisky, Redemption Straight Rye Whiskey, Four Roses Single Barrel Bourbon, TX Blended Whiskey, E.H. Taylor, Jr. Small Batch Bourbon, Rittenhouse Rye, Larceny Small Batch, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Legent Bourbon Whiskey, Wild Turkey American Honey, Jack Daniel’s Tennessee Apple Flavored Whiskey, High West Double Rye Whiskey, Jameson Caskmates Stout Edition, Michter’s US-1 Kentucky Straight Rye, Wild Turkey Longbranch, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Knob Creek Smoked Maple Bourbon Whiskey, Johnnie Walker White Walker Blended Scotch Whisky, Bushmills Irish Whiskey, Fireball Sleeve, Glenmorangie Original 10 Year Old Single Malt Whisky, 1792 Small Batch Kentucky Straight Bourbon Whiskey, Willett Pot Still Reserve Bourbon, Hochstadter’s Slow &amp; Low Rock and Rye, The Glenlivet Founder’s Reserve, Oban 14 Year Single Malt, The Macallan Sherry Oak 12 Years Old, Nikka Whisky From The Barrel, Michter’s US-1 Kentucky Straight Bourbon, Clan Macgregor Scotch, Redbreast 12 Year, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Wild Turkey Bourbon, Johnnie Walker Double Black Label Blended Scotch Whisky, Woodford Reserve Kentucky Straight Rye Whiskey, Booker’s Bourbon, Hudson Bourbon Whiskey, TINCUP American Whiskey, Sazerac Rye Whiskey, Glenfiddich Bourbon Barrel Reserve 14 Year, Four Roses Small Batch Select Bourbon, Jameson Caskmates IPA Edition, Jim Beam Devil’s Cut Bourbon Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Barrell Dovetail Whiskey, Nikka Coffey Grain Whisky</v>
       </c>
       <c r="K103" t="s">
         <v>271</v>
       </c>
       <c r="L103" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1792 Small Batch Kentucky Straight Bourbon Whiskey, Angel’s Envy Kentucky Straight Bourbon Whiskey, Barrell Dovetail Whiskey, Basil Hayden’s Dark Rye Whiskey, Basil Hayden’s Kentucky Straight Bourbon Whiskey, Blanton’s Single Barrel Bourbon, Booker’s Bourbon, Breckenridge Bourbon Whiskey, Buchanan’s DeLuxe Aged 12 Years Blended Scotch Whisky, Buffalo Trace Bourbon, Bulleit Bourbon, Bulleit Rye, Bushmills Irish Whiskey, Canadian Club Whisky, Chivas Regal 12 Year, Clan Macgregor Scotch, Crown Royal Black Blended Canadian Whisky, Crown Royal Fine Deluxe Blended Canadian Whisky, Crown Royal Peach Flavored Whisky, Crown Royal Regal Apple Flavored Whisky, Crown Royal Salted Caramel Flavored Whisky, Crown Royal Vanilla Flavored Whisky, E.H. Taylor, Jr. Small Batch Bourbon, Eagle Rare 10yr Bourbon, Elijah Craig Small Batch Bourbon, Evan Williams Bourbon, Fireball Cinnamon Whisky, Fireball Sleeve, Four Roses Bourbon, Four Roses Single Barrel Bourbon, Four Roses Small Batch Bourbon, Four Roses Small Batch Select Bourbon, Glenfiddich 12 Year Old Single Malt Scotch Whisky, Glenfiddich Bourbon Barrel Reserve 14 Year, Glenmorangie Original 10 Year Old Single Malt Whisky, Hibiki Japanese Harmony Whisky, High West American Prairie Bourbon Whiskey, High West Double Rye Whiskey, Hochstadter’s Slow &amp; Low Rock and Rye, Hudson Bourbon Whiskey, Jack Daniel’s Gentleman Jack Tennessee Whiskey, Jack Daniel’s Old No. 7 Tennessee Whiskey, Jack Daniel’s Tennessee Apple Flavored Whiskey, Jack Daniel’s Tennessee Fire Flavored Whiskey, Jack Daniel’s Tennessee Honey, Jameson Black Barrel, Jameson Caskmates IPA Edition, Jameson Caskmates Stout Edition, Jameson Cold Brew, Jameson Irish Whiskey, Jim Beam Black Extra Aged Bourbon Whiskey, Jim Beam Bourbon Whiskey, Jim Beam Devil’s Cut Bourbon Whiskey, Johnnie Walker Black Label Blended Scotch Whisky, Johnnie Walker Double Black Label Blended Scotch Whisky, Johnnie Walker Red Label Blended Scotch Whisky, Johnnie Walker White Walker Blended Scotch Whisky, Knob Creek Kentucky Straight Bourbon Whiskey, Knob Creek Rye Whiskey, Knob Creek Smoked Maple Bourbon Whiskey, Laphroaig 10 Year Old Islay Single Malt Scotch Whisky, Larceny Small Batch, Legent Bourbon Whiskey, Maker’s 46 Bourbon Whisky, Maker’s Mark Bourbon Whisky, Michter’s US-1 Kentucky Straight Bourbon, Michter’s US-1 Kentucky Straight Rye, Monkey Shoulder Blended Scotch, Nikka Coffey Grain Whisky, Nikka Whisky From The Barrel, Oban 14 Year Single Malt, Old Forester 86 Proof Kentucky Straight Bourbon Whisky, Proper No. Twelve Irish Whiskey, Redbreast 12 Year, Redemption Straight Rye Whiskey, Rittenhouse Rye, Sazerac Rye Whiskey, Skrewball Peanut Butter Whiskey, Southern Comfort Original, Suntory Toki Japanese Whisky, The Balvenie 12 Year Old DoubleWood Single Malt Scotch Whisky, The Balvenie 14 Year Old Caribbean Cask Single Malt Scotch Whisky, The Glenlivet 12 Year, The Glenlivet Founder’s Reserve, The Macallan Double Cask 12 Years Old, The Macallan Sherry Oak 12 Years Old, TINCUP American Whiskey, Tullamore D.E.W. Irish Whiskey, TX Blended Whiskey, Uncle Nearest 1856 Premium Whiskey, Uncle Nearest 1884 Small Batch Whiskey, Weller Special Reserve Bourbon, Wild Turkey 101, Wild Turkey American Honey, Wild Turkey Bourbon, Wild Turkey Longbranch, Willett Pot Still Reserve Bourbon, Woodford Reserve Double Oaked Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Bourbon Whiskey, Woodford Reserve Kentucky Straight Rye Whiskey</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="K3:K103" xr:uid="{0FCC3A19-F82E-45FE-B3DC-FF4D20D83893}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K4:K103">
-      <sortCondition ref="K3:K103"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="C3:D103" xr:uid="{0FCC3A19-F82E-45FE-B3DC-FF4D20D83893}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" display="https://wikiliq.org/liquor/jameson-irish-whiskey/" xr:uid="{74811B6E-538A-41B0-AC13-77998FBED4B8}"/>
